--- a/cpt_data_resampled.xlsx
+++ b/cpt_data_resampled.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
   <si>
     <t>SCPT_RES</t>
   </si>
@@ -203,6 +203,150 @@
   </si>
   <si>
     <t>p11</t>
+  </si>
+  <si>
+    <t>h_f0</t>
+  </si>
+  <si>
+    <t>N_eq0</t>
+  </si>
+  <si>
+    <t>p_cy0</t>
+  </si>
+  <si>
+    <t>y_cy0</t>
+  </si>
+  <si>
+    <t>h_f1</t>
+  </si>
+  <si>
+    <t>N_eq1</t>
+  </si>
+  <si>
+    <t>p_cy1</t>
+  </si>
+  <si>
+    <t>y_cy1</t>
+  </si>
+  <si>
+    <t>h_f2</t>
+  </si>
+  <si>
+    <t>N_eq2</t>
+  </si>
+  <si>
+    <t>p_cy2</t>
+  </si>
+  <si>
+    <t>y_cy2</t>
+  </si>
+  <si>
+    <t>h_f3</t>
+  </si>
+  <si>
+    <t>N_eq3</t>
+  </si>
+  <si>
+    <t>p_cy3</t>
+  </si>
+  <si>
+    <t>y_cy3</t>
+  </si>
+  <si>
+    <t>h_f4</t>
+  </si>
+  <si>
+    <t>N_eq4</t>
+  </si>
+  <si>
+    <t>p_cy4</t>
+  </si>
+  <si>
+    <t>y_cy4</t>
+  </si>
+  <si>
+    <t>h_f5</t>
+  </si>
+  <si>
+    <t>N_eq5</t>
+  </si>
+  <si>
+    <t>p_cy5</t>
+  </si>
+  <si>
+    <t>y_cy5</t>
+  </si>
+  <si>
+    <t>h_f6</t>
+  </si>
+  <si>
+    <t>N_eq6</t>
+  </si>
+  <si>
+    <t>p_cy6</t>
+  </si>
+  <si>
+    <t>y_cy6</t>
+  </si>
+  <si>
+    <t>h_f7</t>
+  </si>
+  <si>
+    <t>N_eq7</t>
+  </si>
+  <si>
+    <t>p_cy7</t>
+  </si>
+  <si>
+    <t>y_cy7</t>
+  </si>
+  <si>
+    <t>h_f8</t>
+  </si>
+  <si>
+    <t>N_eq8</t>
+  </si>
+  <si>
+    <t>p_cy8</t>
+  </si>
+  <si>
+    <t>y_cy8</t>
+  </si>
+  <si>
+    <t>h_f9</t>
+  </si>
+  <si>
+    <t>N_eq9</t>
+  </si>
+  <si>
+    <t>p_cy9</t>
+  </si>
+  <si>
+    <t>y_cy9</t>
+  </si>
+  <si>
+    <t>h_f10</t>
+  </si>
+  <si>
+    <t>N_eq10</t>
+  </si>
+  <si>
+    <t>p_cy10</t>
+  </si>
+  <si>
+    <t>y_cy10</t>
+  </si>
+  <si>
+    <t>h_f11</t>
+  </si>
+  <si>
+    <t>N_eq11</t>
+  </si>
+  <si>
+    <t>p_cy11</t>
+  </si>
+  <si>
+    <t>y_cy11</t>
   </si>
   <si>
     <t>N/A</t>
@@ -569,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK76"/>
+  <dimension ref="A1:DG76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:111">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,8 +909,152 @@
       <c r="BK1" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:111">
       <c r="A2">
         <v>0</v>
       </c>
@@ -783,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -822,7 +1110,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:111">
       <c r="A3">
         <v>0.08200000000000002</v>
       </c>
@@ -875,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="AN3">
         <v>0</v>
@@ -914,7 +1202,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:111">
       <c r="A4">
         <v>0.1710181818181818</v>
       </c>
@@ -982,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X4">
         <v>38.70383453647246</v>
@@ -1000,7 +1288,7 @@
         <v>91.50864759297829</v>
       </c>
       <c r="AC4">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -1012,70 +1300,70 @@
         <v>15</v>
       </c>
       <c r="AQ4">
-        <v>201.3154594903237</v>
+        <v>82.3577828336071</v>
       </c>
       <c r="AR4">
         <v>30</v>
       </c>
       <c r="AS4">
-        <v>201.319024672983</v>
+        <v>82.35778283368046</v>
       </c>
       <c r="AT4">
         <v>45</v>
       </c>
       <c r="AU4">
-        <v>201.319024704552</v>
+        <v>82.35778283368046</v>
       </c>
       <c r="AV4">
         <v>60</v>
       </c>
       <c r="AW4">
-        <v>201.3190247045522</v>
+        <v>82.35778283368046</v>
       </c>
       <c r="AX4">
         <v>75</v>
       </c>
       <c r="AY4">
-        <v>201.3190247045522</v>
+        <v>82.35778283368046</v>
       </c>
       <c r="AZ4">
         <v>90</v>
       </c>
       <c r="BA4">
-        <v>201.3190247045522</v>
+        <v>82.35778283368046</v>
       </c>
       <c r="BB4">
         <v>105</v>
       </c>
       <c r="BC4">
-        <v>201.3190247045522</v>
+        <v>82.35778283368046</v>
       </c>
       <c r="BD4">
         <v>120</v>
       </c>
       <c r="BE4">
-        <v>201.3190247045522</v>
+        <v>82.35778283368046</v>
       </c>
       <c r="BF4">
         <v>135</v>
       </c>
       <c r="BG4">
-        <v>201.3190247045522</v>
+        <v>82.35778283368046</v>
       </c>
       <c r="BH4">
         <v>150</v>
       </c>
       <c r="BI4">
-        <v>201.3190247045522</v>
+        <v>82.35778283368046</v>
       </c>
       <c r="BJ4">
         <v>165</v>
       </c>
       <c r="BK4">
-        <v>201.3190247045522</v>
+        <v>82.35778283368046</v>
       </c>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:111">
       <c r="A5">
         <v>0.1487254237288136</v>
       </c>
@@ -1140,7 +1428,7 @@
         <v>3</v>
       </c>
       <c r="W5" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD5">
         <v>10.17208645586529</v>
@@ -1244,8 +1532,152 @@
       <c r="BK5">
         <v>135.4137507250649</v>
       </c>
+      <c r="BL5">
+        <v>-0.01</v>
+      </c>
+      <c r="BM5">
+        <v>1.98019801980198</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0.04</v>
+      </c>
+      <c r="BQ5">
+        <v>2.083333333333333</v>
+      </c>
+      <c r="BR5">
+        <v>9.257184045892927</v>
+      </c>
+      <c r="BS5">
+        <v>1.097244315488772</v>
+      </c>
+      <c r="BT5">
+        <v>0.19</v>
+      </c>
+      <c r="BU5">
+        <v>2.469135802469136</v>
+      </c>
+      <c r="BV5">
+        <v>36.38454954069457</v>
+      </c>
+      <c r="BW5">
+        <v>10.73458450337416</v>
+      </c>
+      <c r="BX5">
+        <v>0.29</v>
+      </c>
+      <c r="BY5">
+        <v>2.816901408450704</v>
+      </c>
+      <c r="BZ5">
+        <v>53.82740268223861</v>
+      </c>
+      <c r="CA5">
+        <v>23.2102365323193</v>
+      </c>
+      <c r="CB5">
+        <v>0.39</v>
+      </c>
+      <c r="CC5">
+        <v>3.278688524590164</v>
+      </c>
+      <c r="CD5">
+        <v>70.61869943422069</v>
+      </c>
+      <c r="CE5">
+        <v>43.41783220603661</v>
+      </c>
+      <c r="CF5">
+        <v>0.49</v>
+      </c>
+      <c r="CG5">
+        <v>3.92156862745098</v>
+      </c>
+      <c r="CH5">
+        <v>86.57618281209209</v>
+      </c>
+      <c r="CI5">
+        <v>68.59099869399827</v>
+      </c>
+      <c r="CJ5">
+        <v>0.59</v>
+      </c>
+      <c r="CK5">
+        <v>4.878048780487805</v>
+      </c>
+      <c r="CL5">
+        <v>101.4088385198636</v>
+      </c>
+      <c r="CM5">
+        <v>101.7261084342753</v>
+      </c>
+      <c r="CN5">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="CO5">
+        <v>6.451612903225805</v>
+      </c>
+      <c r="CP5">
+        <v>114.600067392281</v>
+      </c>
+      <c r="CQ5">
+        <v>146.4830292605465</v>
+      </c>
+      <c r="CR5">
+        <v>0.79</v>
+      </c>
+      <c r="CS5">
+        <v>9.523809523809526</v>
+      </c>
+      <c r="CT5">
+        <v>125.0647504888219</v>
+      </c>
+      <c r="CU5">
+        <v>212.272490391493</v>
+      </c>
+      <c r="CV5">
+        <v>0.89</v>
+      </c>
+      <c r="CW5">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="CX5">
+        <v>129.6650058747994</v>
+      </c>
+      <c r="CY5">
+        <v>301.6975446125177</v>
+      </c>
+      <c r="CZ5">
+        <v>0.965</v>
+      </c>
+      <c r="DA5">
+        <v>25</v>
+      </c>
+      <c r="DB5">
+        <v>134.5841315977623</v>
+      </c>
+      <c r="DC5">
+        <v>449.6144307110711</v>
+      </c>
+      <c r="DD5">
+        <v>0.99</v>
+      </c>
+      <c r="DE5">
+        <v>25</v>
+      </c>
+      <c r="DF5">
+        <v>138.0350067669357</v>
+      </c>
+      <c r="DG5">
+        <v>599.4859076147615</v>
+      </c>
     </row>
-    <row r="6" spans="1:63">
+    <row r="6" spans="1:111">
       <c r="A6">
         <v>0.15897</v>
       </c>
@@ -1310,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="W6" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD6">
         <v>10.18662906479639</v>
@@ -1414,8 +1846,152 @@
       <c r="BK6">
         <v>156.8177309706264</v>
       </c>
+      <c r="BL6">
+        <v>-0.01777777777777778</v>
+      </c>
+      <c r="BM6">
+        <v>1.965065502183406</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0.03222222222222222</v>
+      </c>
+      <c r="BQ6">
+        <v>2.066590126291619</v>
+      </c>
+      <c r="BR6">
+        <v>10.72926532615003</v>
+      </c>
+      <c r="BS6">
+        <v>0.9700516053819809</v>
+      </c>
+      <c r="BT6">
+        <v>0.1822222222222222</v>
+      </c>
+      <c r="BU6">
+        <v>2.445652173913043</v>
+      </c>
+      <c r="BV6">
+        <v>42.1775822717343</v>
+      </c>
+      <c r="BW6">
+        <v>9.492285096320485</v>
+      </c>
+      <c r="BX6">
+        <v>0.2822222222222222</v>
+      </c>
+      <c r="BY6">
+        <v>2.786377708978328</v>
+      </c>
+      <c r="BZ6">
+        <v>62.40731241803236</v>
+      </c>
+      <c r="CA6">
+        <v>19.54075839876147</v>
+      </c>
+      <c r="CB6">
+        <v>0.3822222222222222</v>
+      </c>
+      <c r="CC6">
+        <v>3.237410071942446</v>
+      </c>
+      <c r="CD6">
+        <v>81.89220687490878</v>
+      </c>
+      <c r="CE6">
+        <v>36.2334968674394</v>
+      </c>
+      <c r="CF6">
+        <v>0.4822222222222222</v>
+      </c>
+      <c r="CG6">
+        <v>3.862660944206008</v>
+      </c>
+      <c r="CH6">
+        <v>100.4268681473675</v>
+      </c>
+      <c r="CI6">
+        <v>56.92585184293905</v>
+      </c>
+      <c r="CJ6">
+        <v>0.5822222222222222</v>
+      </c>
+      <c r="CK6">
+        <v>4.787234042553191</v>
+      </c>
+      <c r="CL6">
+        <v>117.6854288577201</v>
+      </c>
+      <c r="CM6">
+        <v>83.66654400101982</v>
+      </c>
+      <c r="CN6">
+        <v>0.6822222222222222</v>
+      </c>
+      <c r="CO6">
+        <v>6.293706293706292</v>
+      </c>
+      <c r="CP6">
+        <v>133.0949855371349</v>
+      </c>
+      <c r="CQ6">
+        <v>121.6995220295863</v>
+      </c>
+      <c r="CR6">
+        <v>0.7822222222222223</v>
+      </c>
+      <c r="CS6">
+        <v>9.183673469387756</v>
+      </c>
+      <c r="CT6">
+        <v>145.4716770998199</v>
+      </c>
+      <c r="CU6">
+        <v>176.080794882829</v>
+      </c>
+      <c r="CV6">
+        <v>0.8822222222222222</v>
+      </c>
+      <c r="CW6">
+        <v>16.9811320754717</v>
+      </c>
+      <c r="CX6">
+        <v>151.510241284272</v>
+      </c>
+      <c r="CY6">
+        <v>258.3955812375297</v>
+      </c>
+      <c r="CZ6">
+        <v>0.9572222222222222</v>
+      </c>
+      <c r="DA6">
+        <v>25</v>
+      </c>
+      <c r="DB6">
+        <v>155.8569792861275</v>
+      </c>
+      <c r="DC6">
+        <v>388.3315380510956</v>
+      </c>
+      <c r="DD6">
+        <v>0.9822222222222222</v>
+      </c>
+      <c r="DE6">
+        <v>25</v>
+      </c>
+      <c r="DF6">
+        <v>159.8533120883359</v>
+      </c>
+      <c r="DG6">
+        <v>511.9389181005108</v>
+      </c>
     </row>
-    <row r="7" spans="1:63">
+    <row r="7" spans="1:111">
       <c r="A7">
         <v>0.1936</v>
       </c>
@@ -1480,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="W7" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD7">
         <v>12.05573924160956</v>
@@ -1584,8 +2160,152 @@
       <c r="BK7">
         <v>202.5702378197712</v>
       </c>
+      <c r="BL7">
+        <v>-0.02777777777777778</v>
+      </c>
+      <c r="BM7">
+        <v>1.945945945945946</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0.02222222222222223</v>
+      </c>
+      <c r="BQ7">
+        <v>2.045454545454545</v>
+      </c>
+      <c r="BR7">
+        <v>13.87416923300117</v>
+      </c>
+      <c r="BS7">
+        <v>0.9170836267829353</v>
+      </c>
+      <c r="BT7">
+        <v>0.1722222222222222</v>
+      </c>
+      <c r="BU7">
+        <v>2.416107382550336</v>
+      </c>
+      <c r="BV7">
+        <v>54.55208071201176</v>
+      </c>
+      <c r="BW7">
+        <v>8.97642090341664</v>
+      </c>
+      <c r="BX7">
+        <v>0.2722222222222222</v>
+      </c>
+      <c r="BY7">
+        <v>2.748091603053435</v>
+      </c>
+      <c r="BZ7">
+        <v>80.73273116176777</v>
+      </c>
+      <c r="CA7">
+        <v>18.01057523808586</v>
+      </c>
+      <c r="CB7">
+        <v>0.3722222222222222</v>
+      </c>
+      <c r="CC7">
+        <v>3.185840707964602</v>
+      </c>
+      <c r="CD7">
+        <v>105.9669003863497</v>
+      </c>
+      <c r="CE7">
+        <v>33.24137132041152</v>
+      </c>
+      <c r="CF7">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="CG7">
+        <v>3.789473684210526</v>
+      </c>
+      <c r="CH7">
+        <v>129.9982549990815</v>
+      </c>
+      <c r="CI7">
+        <v>52.07849610955424</v>
+      </c>
+      <c r="CJ7">
+        <v>0.5722222222222222</v>
+      </c>
+      <c r="CK7">
+        <v>4.675324675324675</v>
+      </c>
+      <c r="CL7">
+        <v>152.4233508816932</v>
+      </c>
+      <c r="CM7">
+        <v>76.18402660615305</v>
+      </c>
+      <c r="CN7">
+        <v>0.6722222222222222</v>
+      </c>
+      <c r="CO7">
+        <v>6.101694915254236</v>
+      </c>
+      <c r="CP7">
+        <v>172.5413218688712</v>
+      </c>
+      <c r="CQ7">
+        <v>111.5202612872578</v>
+      </c>
+      <c r="CR7">
+        <v>0.7722222222222223</v>
+      </c>
+      <c r="CS7">
+        <v>8.780487804878049</v>
+      </c>
+      <c r="CT7">
+        <v>188.9324841978534</v>
+      </c>
+      <c r="CU7">
+        <v>161.4201102959423</v>
+      </c>
+      <c r="CV7">
+        <v>0.8722222222222222</v>
+      </c>
+      <c r="CW7">
+        <v>15.65217391304348</v>
+      </c>
+      <c r="CX7">
+        <v>197.7942723911419</v>
+      </c>
+      <c r="CY7">
+        <v>241.9701532360561</v>
+      </c>
+      <c r="CZ7">
+        <v>0.9472222222222222</v>
+      </c>
+      <c r="DA7">
+        <v>25</v>
+      </c>
+      <c r="DB7">
+        <v>201.3291811101116</v>
+      </c>
+      <c r="DC7">
+        <v>362.4625159019361</v>
+      </c>
+      <c r="DD7">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="DE7">
+        <v>25</v>
+      </c>
+      <c r="DF7">
+        <v>206.4914678052427</v>
+      </c>
+      <c r="DG7">
+        <v>474.9831721731401</v>
+      </c>
     </row>
-    <row r="8" spans="1:63">
+    <row r="8" spans="1:111">
       <c r="A8">
         <v>0.2296399999999999</v>
       </c>
@@ -1650,7 +2370,7 @@
         <v>6</v>
       </c>
       <c r="W8" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD8">
         <v>14.49092934840922</v>
@@ -1754,8 +2474,152 @@
       <c r="BK8">
         <v>257.3905259038197</v>
       </c>
+      <c r="BL8">
+        <v>-0.04000000000000001</v>
+      </c>
+      <c r="BM8">
+        <v>1.923076923076923</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0.009999999999999995</v>
+      </c>
+      <c r="BQ8">
+        <v>2.02020202020202</v>
+      </c>
+      <c r="BR8">
+        <v>17.65122900398333</v>
+      </c>
+      <c r="BS8">
+        <v>0.8956072438685357</v>
+      </c>
+      <c r="BT8">
+        <v>0.16</v>
+      </c>
+      <c r="BU8">
+        <v>2.380952380952381</v>
+      </c>
+      <c r="BV8">
+        <v>69.42079465010833</v>
+      </c>
+      <c r="BW8">
+        <v>8.769053270212442</v>
+      </c>
+      <c r="BX8">
+        <v>0.26</v>
+      </c>
+      <c r="BY8">
+        <v>2.702702702702703</v>
+      </c>
+      <c r="BZ8">
+        <v>102.7609550718685</v>
+      </c>
+      <c r="CA8">
+        <v>17.38789414565327</v>
+      </c>
+      <c r="CB8">
+        <v>0.36</v>
+      </c>
+      <c r="CC8">
+        <v>3.125</v>
+      </c>
+      <c r="CD8">
+        <v>134.9219722260151</v>
+      </c>
+      <c r="CE8">
+        <v>32.02851058648928</v>
+      </c>
+      <c r="CF8">
+        <v>0.46</v>
+      </c>
+      <c r="CG8">
+        <v>3.703703703703703</v>
+      </c>
+      <c r="CH8">
+        <v>165.5913371123264</v>
+      </c>
+      <c r="CI8">
+        <v>50.12715185625351</v>
+      </c>
+      <c r="CJ8">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="CK8">
+        <v>4.545454545454545</v>
+      </c>
+      <c r="CL8">
+        <v>194.2817846426495</v>
+      </c>
+      <c r="CM8">
+        <v>73.19916297570694</v>
+      </c>
+      <c r="CN8">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="CO8">
+        <v>5.882352941176469</v>
+      </c>
+      <c r="CP8">
+        <v>220.1585306195062</v>
+      </c>
+      <c r="CQ8">
+        <v>107.5671044441448</v>
+      </c>
+      <c r="CR8">
+        <v>0.76</v>
+      </c>
+      <c r="CS8">
+        <v>8.333333333333334</v>
+      </c>
+      <c r="CT8">
+        <v>241.5688548395218</v>
+      </c>
+      <c r="CU8">
+        <v>155.9715420050546</v>
+      </c>
+      <c r="CV8">
+        <v>0.86</v>
+      </c>
+      <c r="CW8">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="CX8">
+        <v>254.28465500369</v>
+      </c>
+      <c r="CY8">
+        <v>237.1540559350428</v>
+      </c>
+      <c r="CZ8">
+        <v>0.9349999999999999</v>
+      </c>
+      <c r="DA8">
+        <v>25</v>
+      </c>
+      <c r="DB8">
+        <v>255.8136099530178</v>
+      </c>
+      <c r="DC8">
+        <v>351.5450658919306</v>
+      </c>
+      <c r="DD8">
+        <v>0.96</v>
+      </c>
+      <c r="DE8">
+        <v>25</v>
+      </c>
+      <c r="DF8">
+        <v>262.3729332851465</v>
+      </c>
+      <c r="DG8">
+        <v>459.3868150159893</v>
+      </c>
     </row>
-    <row r="9" spans="1:63">
+    <row r="9" spans="1:111">
       <c r="A9">
         <v>0.2424000000000004</v>
       </c>
@@ -1820,7 +2684,7 @@
         <v>7</v>
       </c>
       <c r="W9" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD9">
         <v>14.96606528130661</v>
@@ -1924,8 +2788,152 @@
       <c r="BK9">
         <v>287.3013238833316</v>
       </c>
+      <c r="BL9">
+        <v>-0.05444444444444445</v>
+      </c>
+      <c r="BM9">
+        <v>1.896733403582719</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>-0.004444444444444445</v>
+      </c>
+      <c r="BQ9">
+        <v>1.991150442477876</v>
+      </c>
+      <c r="BR9">
+        <v>19.73157104633819</v>
+      </c>
+      <c r="BS9">
+        <v>0.8187054697957958</v>
+      </c>
+      <c r="BT9">
+        <v>0.1455555555555555</v>
+      </c>
+      <c r="BU9">
+        <v>2.340702210663199</v>
+      </c>
+      <c r="BV9">
+        <v>77.62518987826785</v>
+      </c>
+      <c r="BW9">
+        <v>8.019071853596419</v>
+      </c>
+      <c r="BX9">
+        <v>0.2455555555555555</v>
+      </c>
+      <c r="BY9">
+        <v>2.650957290132548</v>
+      </c>
+      <c r="BZ9">
+        <v>114.9358501016556</v>
+      </c>
+      <c r="CA9">
+        <v>15.34678829612667</v>
+      </c>
+      <c r="CB9">
+        <v>0.3455555555555556</v>
+      </c>
+      <c r="CC9">
+        <v>3.056027164685909</v>
+      </c>
+      <c r="CD9">
+        <v>150.9600435800353</v>
+      </c>
+      <c r="CE9">
+        <v>27.66780118733392</v>
+      </c>
+      <c r="CF9">
+        <v>0.4455555555555555</v>
+      </c>
+      <c r="CG9">
+        <v>3.607214428857715</v>
+      </c>
+      <c r="CH9">
+        <v>185.3652313204343</v>
+      </c>
+      <c r="CI9">
+        <v>43.04644709565732</v>
+      </c>
+      <c r="CJ9">
+        <v>0.5455555555555556</v>
+      </c>
+      <c r="CK9">
+        <v>4.400977995110025</v>
+      </c>
+      <c r="CL9">
+        <v>217.6383806404372</v>
+      </c>
+      <c r="CM9">
+        <v>63.38470521781032</v>
+      </c>
+      <c r="CN9">
+        <v>0.6455555555555555</v>
+      </c>
+      <c r="CO9">
+        <v>5.642633228840126</v>
+      </c>
+      <c r="CP9">
+        <v>246.9141177077595</v>
+      </c>
+      <c r="CQ9">
+        <v>92.5460461914472</v>
+      </c>
+      <c r="CR9">
+        <v>0.7455555555555556</v>
+      </c>
+      <c r="CS9">
+        <v>7.860262008733627</v>
+      </c>
+      <c r="CT9">
+        <v>271.521633858621</v>
+      </c>
+      <c r="CU9">
+        <v>135.0918516997858</v>
+      </c>
+      <c r="CV9">
+        <v>0.8455555555555555</v>
+      </c>
+      <c r="CW9">
+        <v>12.94964028776978</v>
+      </c>
+      <c r="CX9">
+        <v>287.3890745120093</v>
+      </c>
+      <c r="CY9">
+        <v>207.2329328258663</v>
+      </c>
+      <c r="CZ9">
+        <v>0.9205555555555556</v>
+      </c>
+      <c r="DA9">
+        <v>25</v>
+      </c>
+      <c r="DB9">
+        <v>285.5411579303415</v>
+      </c>
+      <c r="DC9">
+        <v>309.8521517341935</v>
+      </c>
+      <c r="DD9">
+        <v>0.9455555555555556</v>
+      </c>
+      <c r="DE9">
+        <v>25</v>
+      </c>
+      <c r="DF9">
+        <v>292.8627260824015</v>
+      </c>
+      <c r="DG9">
+        <v>427.8317774958871</v>
+      </c>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:111">
       <c r="A10">
         <v>0.2627200000000001</v>
       </c>
@@ -1990,7 +2998,7 @@
         <v>8</v>
       </c>
       <c r="W10" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD10">
         <v>15.54955235485148</v>
@@ -2094,8 +3102,152 @@
       <c r="BK10">
         <v>341.0998313610457</v>
       </c>
+      <c r="BL10">
+        <v>-0.07111111111111111</v>
+      </c>
+      <c r="BM10">
+        <v>1.867219917012448</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>-0.02111111111111112</v>
+      </c>
+      <c r="BQ10">
+        <v>1.958650707290533</v>
+      </c>
+      <c r="BR10">
+        <v>23.46569317355273</v>
+      </c>
+      <c r="BS10">
+        <v>0.7554680473620486</v>
+      </c>
+      <c r="BT10">
+        <v>0.1288888888888889</v>
+      </c>
+      <c r="BU10">
+        <v>2.295918367346939</v>
+      </c>
+      <c r="BV10">
+        <v>92.34537001857919</v>
+      </c>
+      <c r="BW10">
+        <v>7.402732190144866</v>
+      </c>
+      <c r="BX10">
+        <v>0.2288888888888889</v>
+      </c>
+      <c r="BY10">
+        <v>2.593659942363113</v>
+      </c>
+      <c r="BZ10">
+        <v>136.7711611847976</v>
+      </c>
+      <c r="CA10">
+        <v>13.69971183157663</v>
+      </c>
+      <c r="CB10">
+        <v>0.3288888888888888</v>
+      </c>
+      <c r="CC10">
+        <v>2.980132450331126</v>
+      </c>
+      <c r="CD10">
+        <v>179.7083800565717</v>
+      </c>
+      <c r="CE10">
+        <v>24.07139481877918</v>
+      </c>
+      <c r="CF10">
+        <v>0.4288888888888889</v>
+      </c>
+      <c r="CG10">
+        <v>3.501945525291829</v>
+      </c>
+      <c r="CH10">
+        <v>220.7829007606018</v>
+      </c>
+      <c r="CI10">
+        <v>37.20445223826688</v>
+      </c>
+      <c r="CJ10">
+        <v>0.5288888888888889</v>
+      </c>
+      <c r="CK10">
+        <v>4.245283018867924</v>
+      </c>
+      <c r="CL10">
+        <v>259.4241886010302</v>
+      </c>
+      <c r="CM10">
+        <v>55.50461449525134</v>
+      </c>
+      <c r="CN10">
+        <v>0.6288888888888888</v>
+      </c>
+      <c r="CO10">
+        <v>5.389221556886227</v>
+      </c>
+      <c r="CP10">
+        <v>294.6859362012187</v>
+      </c>
+      <c r="CQ10">
+        <v>80.14394626091956</v>
+      </c>
+      <c r="CR10">
+        <v>0.7288888888888888</v>
+      </c>
+      <c r="CS10">
+        <v>7.377049180327867</v>
+      </c>
+      <c r="CT10">
+        <v>324.7891685789212</v>
+      </c>
+      <c r="CU10">
+        <v>118.0337903807549</v>
+      </c>
+      <c r="CV10">
+        <v>0.8288888888888889</v>
+      </c>
+      <c r="CW10">
+        <v>11.68831168831169</v>
+      </c>
+      <c r="CX10">
+        <v>345.6084012606898</v>
+      </c>
+      <c r="CY10">
+        <v>181.6158236998688</v>
+      </c>
+      <c r="CZ10">
+        <v>0.9038888888888889</v>
+      </c>
+      <c r="DA10">
+        <v>20.80924855491329</v>
+      </c>
+      <c r="DB10">
+        <v>347.552838866759</v>
+      </c>
+      <c r="DC10">
+        <v>284.0598716008291</v>
+      </c>
+      <c r="DD10">
+        <v>0.9288888888888889</v>
+      </c>
+      <c r="DE10">
+        <v>25</v>
+      </c>
+      <c r="DF10">
+        <v>347.7026319558805</v>
+      </c>
+      <c r="DG10">
+        <v>405.8275560954971</v>
+      </c>
     </row>
-    <row r="11" spans="1:63">
+    <row r="11" spans="1:111">
       <c r="A11">
         <v>0.3032666666666667</v>
       </c>
@@ -2160,7 +3312,7 @@
         <v>9</v>
       </c>
       <c r="W11" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD11">
         <v>17.9240742345161</v>
@@ -2264,8 +3416,152 @@
       <c r="BK11">
         <v>394.1542054045034</v>
       </c>
+      <c r="BL11">
+        <v>-0.09</v>
+      </c>
+      <c r="BM11">
+        <v>1.834862385321101</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>-0.03999999999999999</v>
+      </c>
+      <c r="BQ11">
+        <v>1.923076923076923</v>
+      </c>
+      <c r="BR11">
+        <v>27.16609902715547</v>
+      </c>
+      <c r="BS11">
+        <v>0.7468091182362681</v>
+      </c>
+      <c r="BT11">
+        <v>0.11</v>
+      </c>
+      <c r="BU11">
+        <v>2.247191011235955</v>
+      </c>
+      <c r="BV11">
+        <v>106.9454396308533</v>
+      </c>
+      <c r="BW11">
+        <v>7.321177545661119</v>
+      </c>
+      <c r="BX11">
+        <v>0.21</v>
+      </c>
+      <c r="BY11">
+        <v>2.531645569620253</v>
+      </c>
+      <c r="BZ11">
+        <v>158.4450559230091</v>
+      </c>
+      <c r="CA11">
+        <v>13.47187050315859</v>
+      </c>
+      <c r="CB11">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="CC11">
+        <v>2.898550724637682</v>
+      </c>
+      <c r="CD11">
+        <v>208.2727343240452</v>
+      </c>
+      <c r="CE11">
+        <v>23.56838275054243</v>
+      </c>
+      <c r="CF11">
+        <v>0.41</v>
+      </c>
+      <c r="CG11">
+        <v>3.389830508474577</v>
+      </c>
+      <c r="CH11">
+        <v>256.0210531455103</v>
+      </c>
+      <c r="CI11">
+        <v>36.4032270128229</v>
+      </c>
+      <c r="CJ11">
+        <v>0.51</v>
+      </c>
+      <c r="CK11">
+        <v>4.081632653061225</v>
+      </c>
+      <c r="CL11">
+        <v>301.0763634760203</v>
+      </c>
+      <c r="CM11">
+        <v>54.49171239201083</v>
+      </c>
+      <c r="CN11">
+        <v>0.61</v>
+      </c>
+      <c r="CO11">
+        <v>5.128205128205128</v>
+      </c>
+      <c r="CP11">
+        <v>342.4387848440603</v>
+      </c>
+      <c r="CQ11">
+        <v>78.62358508329278</v>
+      </c>
+      <c r="CR11">
+        <v>0.7100000000000001</v>
+      </c>
+      <c r="CS11">
+        <v>6.896551724137933</v>
+      </c>
+      <c r="CT11">
+        <v>378.2798765071066</v>
+      </c>
+      <c r="CU11">
+        <v>116.2742046187306</v>
+      </c>
+      <c r="CV11">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="CW11">
+        <v>10.52631578947369</v>
+      </c>
+      <c r="CX11">
+        <v>404.5643395101075</v>
+      </c>
+      <c r="CY11">
+        <v>179.9845303384333</v>
+      </c>
+      <c r="CZ11">
+        <v>0.885</v>
+      </c>
+      <c r="DA11">
+        <v>17.39130434782609</v>
+      </c>
+      <c r="DB11">
+        <v>411.2644590876626</v>
+      </c>
+      <c r="DC11">
+        <v>287.2535790327353</v>
+      </c>
+      <c r="DD11">
+        <v>0.91</v>
+      </c>
+      <c r="DE11">
+        <v>22.22222222222223</v>
+      </c>
+      <c r="DF11">
+        <v>408.2834549541813</v>
+      </c>
+      <c r="DG11">
+        <v>411.1609116168795</v>
+      </c>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:111">
       <c r="A12">
         <v>0.3028454545454545</v>
       </c>
@@ -2330,7 +3626,7 @@
         <v>10</v>
       </c>
       <c r="W12" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD12">
         <v>17.45888135057323</v>
@@ -2434,8 +3730,152 @@
       <c r="BK12">
         <v>389.7780573923887</v>
       </c>
+      <c r="BL12">
+        <v>-0.1111111111111111</v>
+      </c>
+      <c r="BM12">
+        <v>1.8</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>-0.0611111111111111</v>
+      </c>
+      <c r="BQ12">
+        <v>1.884816753926702</v>
+      </c>
+      <c r="BR12">
+        <v>26.91931438916727</v>
+      </c>
+      <c r="BS12">
+        <v>0.6930755027911322</v>
+      </c>
+      <c r="BT12">
+        <v>0.08888888888888893</v>
+      </c>
+      <c r="BU12">
+        <v>2.195121951219512</v>
+      </c>
+      <c r="BV12">
+        <v>106.0139202312374</v>
+      </c>
+      <c r="BW12">
+        <v>6.797680061487529</v>
+      </c>
+      <c r="BX12">
+        <v>0.1888888888888889</v>
+      </c>
+      <c r="BY12">
+        <v>2.465753424657534</v>
+      </c>
+      <c r="BZ12">
+        <v>157.1176284488686</v>
+      </c>
+      <c r="CA12">
+        <v>12.06720942532354</v>
+      </c>
+      <c r="CB12">
+        <v>0.288888888888889</v>
+      </c>
+      <c r="CC12">
+        <v>2.8125</v>
+      </c>
+      <c r="CD12">
+        <v>206.6181789454496</v>
+      </c>
+      <c r="CE12">
+        <v>20.4935496353067</v>
+      </c>
+      <c r="CF12">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="CG12">
+        <v>3.272727272727272</v>
+      </c>
+      <c r="CH12">
+        <v>254.1377659395095</v>
+      </c>
+      <c r="CI12">
+        <v>31.40113442473233</v>
+      </c>
+      <c r="CJ12">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="CK12">
+        <v>3.91304347826087</v>
+      </c>
+      <c r="CL12">
+        <v>299.1147075111888</v>
+      </c>
+      <c r="CM12">
+        <v>47.74116377742584</v>
+      </c>
+      <c r="CN12">
+        <v>0.5888888888888888</v>
+      </c>
+      <c r="CO12">
+        <v>4.864864864864864</v>
+      </c>
+      <c r="CP12">
+        <v>340.6505027780415</v>
+      </c>
+      <c r="CQ12">
+        <v>67.95482892442169</v>
+      </c>
+      <c r="CR12">
+        <v>0.6888888888888891</v>
+      </c>
+      <c r="CS12">
+        <v>6.428571428571433</v>
+      </c>
+      <c r="CT12">
+        <v>377.1475870363988</v>
+      </c>
+      <c r="CU12">
+        <v>101.5142593470646</v>
+      </c>
+      <c r="CV12">
+        <v>0.788888888888889</v>
+      </c>
+      <c r="CW12">
+        <v>9.47368421052632</v>
+      </c>
+      <c r="CX12">
+        <v>405.2470809955076</v>
+      </c>
+      <c r="CY12">
+        <v>157.3330010594223</v>
+      </c>
+      <c r="CZ12">
+        <v>0.8638888888888889</v>
+      </c>
+      <c r="DA12">
+        <v>14.69387755102041</v>
+      </c>
+      <c r="DB12">
+        <v>415.6654322216885</v>
+      </c>
+      <c r="DC12">
+        <v>262.7347162838503</v>
+      </c>
+      <c r="DD12">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="DE12">
+        <v>17.99999999999999</v>
+      </c>
+      <c r="DF12">
+        <v>415.2492559159687</v>
+      </c>
+      <c r="DG12">
+        <v>407.0918087902604</v>
+      </c>
     </row>
-    <row r="13" spans="1:63">
+    <row r="13" spans="1:111">
       <c r="A13">
         <v>0.3451400000000006</v>
       </c>
@@ -2500,7 +3940,7 @@
         <v>11</v>
       </c>
       <c r="W13" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD13">
         <v>19.94775531351192</v>
@@ -2604,8 +4044,152 @@
       <c r="BK13">
         <v>445.2779194578012</v>
       </c>
+      <c r="BL13">
+        <v>-0.1344444444444444</v>
+      </c>
+      <c r="BM13">
+        <v>1.762977473065622</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>-0.08444444444444442</v>
+      </c>
+      <c r="BQ13">
+        <v>1.844262295081967</v>
+      </c>
+      <c r="BR13">
+        <v>30.8201091202836</v>
+      </c>
+      <c r="BS13">
+        <v>0.6954382995852687</v>
+      </c>
+      <c r="BT13">
+        <v>0.06555555555555559</v>
+      </c>
+      <c r="BU13">
+        <v>2.140309155766944</v>
+      </c>
+      <c r="BV13">
+        <v>121.4243462621297</v>
+      </c>
+      <c r="BW13">
+        <v>6.824308863963026</v>
+      </c>
+      <c r="BX13">
+        <v>0.1655555555555556</v>
+      </c>
+      <c r="BY13">
+        <v>2.396804260985353</v>
+      </c>
+      <c r="BZ13">
+        <v>180.0197517228225</v>
+      </c>
+      <c r="CA13">
+        <v>12.12394062143798</v>
+      </c>
+      <c r="CB13">
+        <v>0.2655555555555556</v>
+      </c>
+      <c r="CC13">
+        <v>2.723146747352496</v>
+      </c>
+      <c r="CD13">
+        <v>236.84326576992</v>
+      </c>
+      <c r="CE13">
+        <v>20.60778479490234</v>
+      </c>
+      <c r="CF13">
+        <v>0.3655555555555556</v>
+      </c>
+      <c r="CG13">
+        <v>3.152364273204904</v>
+      </c>
+      <c r="CH13">
+        <v>291.4919765512981</v>
+      </c>
+      <c r="CI13">
+        <v>31.60367933866365</v>
+      </c>
+      <c r="CJ13">
+        <v>0.4655555555555556</v>
+      </c>
+      <c r="CK13">
+        <v>3.742203742203742</v>
+      </c>
+      <c r="CL13">
+        <v>343.3748775412764</v>
+      </c>
+      <c r="CM13">
+        <v>48.0960028535069</v>
+      </c>
+      <c r="CN13">
+        <v>0.5655555555555556</v>
+      </c>
+      <c r="CO13">
+        <v>4.603580562659847</v>
+      </c>
+      <c r="CP13">
+        <v>391.5641466158025</v>
+      </c>
+      <c r="CQ13">
+        <v>68.58592747455859</v>
+      </c>
+      <c r="CR13">
+        <v>0.6655555555555557</v>
+      </c>
+      <c r="CS13">
+        <v>5.980066445182726</v>
+      </c>
+      <c r="CT13">
+        <v>434.4557299184579</v>
+      </c>
+      <c r="CU13">
+        <v>102.7425948731513</v>
+      </c>
+      <c r="CV13">
+        <v>0.7655555555555555</v>
+      </c>
+      <c r="CW13">
+        <v>8.530805687203792</v>
+      </c>
+      <c r="CX13">
+        <v>468.8312689913557</v>
+      </c>
+      <c r="CY13">
+        <v>160.1587220539722</v>
+      </c>
+      <c r="CZ13">
+        <v>0.8405555555555555</v>
+      </c>
+      <c r="DA13">
+        <v>12.54355400696864</v>
+      </c>
+      <c r="DB13">
+        <v>484.468279403683</v>
+      </c>
+      <c r="DC13">
+        <v>270.0813336370268</v>
+      </c>
+      <c r="DD13">
+        <v>0.8655555555555556</v>
+      </c>
+      <c r="DE13">
+        <v>14.87603305785125</v>
+      </c>
+      <c r="DF13">
+        <v>486.2589856073822</v>
+      </c>
+      <c r="DG13">
+        <v>420.9222285687249</v>
+      </c>
     </row>
-    <row r="14" spans="1:63">
+    <row r="14" spans="1:111">
       <c r="A14">
         <v>0.40349</v>
       </c>
@@ -2670,7 +4254,7 @@
         <v>12</v>
       </c>
       <c r="W14" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD14">
         <v>23.9499532072521</v>
@@ -2774,8 +4358,152 @@
       <c r="BK14">
         <v>531.1848263495366</v>
       </c>
+      <c r="BL14">
+        <v>-0.16</v>
+      </c>
+      <c r="BM14">
+        <v>1.724137931034483</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>-0.11</v>
+      </c>
+      <c r="BQ14">
+        <v>1.801801801801802</v>
+      </c>
+      <c r="BR14">
+        <v>36.852801079833</v>
+      </c>
+      <c r="BS14">
+        <v>0.7195030885817321</v>
+      </c>
+      <c r="BT14">
+        <v>0.03999999999999998</v>
+      </c>
+      <c r="BU14">
+        <v>2.083333333333333</v>
+      </c>
+      <c r="BV14">
+        <v>145.2518868600589</v>
+      </c>
+      <c r="BW14">
+        <v>7.06417331728295</v>
+      </c>
+      <c r="BX14">
+        <v>0.14</v>
+      </c>
+      <c r="BY14">
+        <v>2.325581395348837</v>
+      </c>
+      <c r="BZ14">
+        <v>215.4237364203342</v>
+      </c>
+      <c r="CA14">
+        <v>12.74724193746104</v>
+      </c>
+      <c r="CB14">
+        <v>0.24</v>
+      </c>
+      <c r="CC14">
+        <v>2.631578947368421</v>
+      </c>
+      <c r="CD14">
+        <v>283.5545845272966</v>
+      </c>
+      <c r="CE14">
+        <v>21.9599607614934</v>
+      </c>
+      <c r="CF14">
+        <v>0.34</v>
+      </c>
+      <c r="CG14">
+        <v>3.03030303030303</v>
+      </c>
+      <c r="CH14">
+        <v>349.1975139088381</v>
+      </c>
+      <c r="CI14">
+        <v>33.83130003302858</v>
+      </c>
+      <c r="CJ14">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="CK14">
+        <v>3.571428571428571</v>
+      </c>
+      <c r="CL14">
+        <v>411.7058925180218</v>
+      </c>
+      <c r="CM14">
+        <v>51.22560750333039</v>
+      </c>
+      <c r="CN14">
+        <v>0.5399999999999999</v>
+      </c>
+      <c r="CO14">
+        <v>4.347826086956521</v>
+      </c>
+      <c r="CP14">
+        <v>470.0835679689802</v>
+      </c>
+      <c r="CQ14">
+        <v>73.65011561012925</v>
+      </c>
+      <c r="CR14">
+        <v>0.64</v>
+      </c>
+      <c r="CS14">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="CT14">
+        <v>522.6553663990026</v>
+      </c>
+      <c r="CU14">
+        <v>110.291476312176</v>
+      </c>
+      <c r="CV14">
+        <v>0.74</v>
+      </c>
+      <c r="CW14">
+        <v>7.692307692307692</v>
+      </c>
+      <c r="CX14">
+        <v>566.2069975994732</v>
+      </c>
+      <c r="CY14">
+        <v>173.1906919980308</v>
+      </c>
+      <c r="CZ14">
+        <v>0.8150000000000001</v>
+      </c>
+      <c r="DA14">
+        <v>10.81081081081081</v>
+      </c>
+      <c r="DB14">
+        <v>588.7150031524847</v>
+      </c>
+      <c r="DC14">
+        <v>290.3942619274636</v>
+      </c>
+      <c r="DD14">
+        <v>0.84</v>
+      </c>
+      <c r="DE14">
+        <v>12.5</v>
+      </c>
+      <c r="DF14">
+        <v>593.0136723472084</v>
+      </c>
+      <c r="DG14">
+        <v>441.7395237445108</v>
+      </c>
     </row>
-    <row r="15" spans="1:63">
+    <row r="15" spans="1:111">
       <c r="A15">
         <v>0.4066431818181818</v>
       </c>
@@ -2840,7 +4568,7 @@
         <v>13</v>
       </c>
       <c r="W15" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD15">
         <v>23.28223728438094</v>
@@ -2944,8 +4672,152 @@
       <c r="BK15">
         <v>523.1169132102519</v>
       </c>
+      <c r="BL15">
+        <v>-0.1877777777777778</v>
+      </c>
+      <c r="BM15">
+        <v>1.683816651075772</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>-0.1377777777777778</v>
+      </c>
+      <c r="BQ15">
+        <v>1.7578125</v>
+      </c>
+      <c r="BR15">
+        <v>36.38357071393813</v>
+      </c>
+      <c r="BS15">
+        <v>0.6795900146651401</v>
+      </c>
+      <c r="BT15">
+        <v>0.01222222222222222</v>
+      </c>
+      <c r="BU15">
+        <v>2.024746906636671</v>
+      </c>
+      <c r="BV15">
+        <v>143.4635308518843</v>
+      </c>
+      <c r="BW15">
+        <v>6.675914577178157</v>
+      </c>
+      <c r="BX15">
+        <v>0.1122222222222222</v>
+      </c>
+      <c r="BY15">
+        <v>2.252816020025031</v>
+      </c>
+      <c r="BZ15">
+        <v>212.8502028241741</v>
+      </c>
+      <c r="CA15">
+        <v>11.69713213924058</v>
+      </c>
+      <c r="CB15">
+        <v>0.2122222222222222</v>
+      </c>
+      <c r="CC15">
+        <v>2.538787023977433</v>
+      </c>
+      <c r="CD15">
+        <v>280.299413295019</v>
+      </c>
+      <c r="CE15">
+        <v>19.65125987289086</v>
+      </c>
+      <c r="CF15">
+        <v>0.3122222222222222</v>
+      </c>
+      <c r="CG15">
+        <v>2.907915993537964</v>
+      </c>
+      <c r="CH15">
+        <v>345.4033388555576</v>
+      </c>
+      <c r="CI15">
+        <v>30.06901138605513</v>
+      </c>
+      <c r="CJ15">
+        <v>0.4122222222222222</v>
+      </c>
+      <c r="CK15">
+        <v>3.402646502835538</v>
+      </c>
+      <c r="CL15">
+        <v>407.5800065766117</v>
+      </c>
+      <c r="CM15">
+        <v>46.15230680592103</v>
+      </c>
+      <c r="CN15">
+        <v>0.5122222222222221</v>
+      </c>
+      <c r="CO15">
+        <v>4.100227790432801</v>
+      </c>
+      <c r="CP15">
+        <v>465.9495628070767</v>
+      </c>
+      <c r="CQ15">
+        <v>65.59098428029593</v>
+      </c>
+      <c r="CR15">
+        <v>0.6122222222222222</v>
+      </c>
+      <c r="CS15">
+        <v>5.157593123209169</v>
+      </c>
+      <c r="CT15">
+        <v>519.0718371721671</v>
+      </c>
+      <c r="CU15">
+        <v>99.08521716612906</v>
+      </c>
+      <c r="CV15">
+        <v>0.7122222222222222</v>
+      </c>
+      <c r="CW15">
+        <v>6.949806949806949</v>
+      </c>
+      <c r="CX15">
+        <v>564.2977494497252</v>
+      </c>
+      <c r="CY15">
+        <v>155.6366415968962</v>
+      </c>
+      <c r="CZ15">
+        <v>0.7872222222222222</v>
+      </c>
+      <c r="DA15">
+        <v>9.399477806788509</v>
+      </c>
+      <c r="DB15">
+        <v>589.7623796469115</v>
+      </c>
+      <c r="DC15">
+        <v>270.30222686365</v>
+      </c>
+      <c r="DD15">
+        <v>0.8122222222222222</v>
+      </c>
+      <c r="DE15">
+        <v>10.65088757396449</v>
+      </c>
+      <c r="DF15">
+        <v>595.7307447023433</v>
+      </c>
+      <c r="DG15">
+        <v>437.1066235972048</v>
+      </c>
     </row>
-    <row r="16" spans="1:63">
+    <row r="16" spans="1:111">
       <c r="A16">
         <v>0.4148</v>
       </c>
@@ -3010,7 +4882,7 @@
         <v>14</v>
       </c>
       <c r="W16" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD16">
         <v>22.78558894023609</v>
@@ -3114,8 +4986,152 @@
       <c r="BK16">
         <v>518.3065015332438</v>
       </c>
+      <c r="BL16">
+        <v>-0.2177777777777778</v>
+      </c>
+      <c r="BM16">
+        <v>1.642335766423358</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>-0.1677777777777778</v>
+      </c>
+      <c r="BQ16">
+        <v>1.712654614652712</v>
+      </c>
+      <c r="BR16">
+        <v>36.14342386056288</v>
+      </c>
+      <c r="BS16">
+        <v>0.6748042558673863</v>
+      </c>
+      <c r="BT16">
+        <v>-0.01777777777777778</v>
+      </c>
+      <c r="BU16">
+        <v>1.965065502183406</v>
+      </c>
+      <c r="BV16">
+        <v>142.5784910603884</v>
+      </c>
+      <c r="BW16">
+        <v>6.632558513463493</v>
+      </c>
+      <c r="BX16">
+        <v>0.0822222222222222</v>
+      </c>
+      <c r="BY16">
+        <v>2.179176755447942</v>
+      </c>
+      <c r="BZ16">
+        <v>211.6163651006517</v>
+      </c>
+      <c r="CA16">
+        <v>11.56404239918089</v>
+      </c>
+      <c r="CB16">
+        <v>0.1822222222222222</v>
+      </c>
+      <c r="CC16">
+        <v>2.445652173913043</v>
+      </c>
+      <c r="CD16">
+        <v>278.806675432486</v>
+      </c>
+      <c r="CE16">
+        <v>19.34633420060844</v>
+      </c>
+      <c r="CF16">
+        <v>0.2822222222222222</v>
+      </c>
+      <c r="CG16">
+        <v>2.786377708978328</v>
+      </c>
+      <c r="CH16">
+        <v>343.7761317898132</v>
+      </c>
+      <c r="CI16">
+        <v>29.58300963480151</v>
+      </c>
+      <c r="CJ16">
+        <v>0.3822222222222222</v>
+      </c>
+      <c r="CK16">
+        <v>3.237410071942446</v>
+      </c>
+      <c r="CL16">
+        <v>405.9993374357751</v>
+      </c>
+      <c r="CM16">
+        <v>45.56339431825656</v>
+      </c>
+      <c r="CN16">
+        <v>0.4822222222222222</v>
+      </c>
+      <c r="CO16">
+        <v>3.862660944206008</v>
+      </c>
+      <c r="CP16">
+        <v>464.6965474765936</v>
+      </c>
+      <c r="CQ16">
+        <v>64.69184746456285</v>
+      </c>
+      <c r="CR16">
+        <v>0.5822222222222222</v>
+      </c>
+      <c r="CS16">
+        <v>4.787234042553191</v>
+      </c>
+      <c r="CT16">
+        <v>518.6243718329679</v>
+      </c>
+      <c r="CU16">
+        <v>98.07666079307893</v>
+      </c>
+      <c r="CV16">
+        <v>0.6822222222222223</v>
+      </c>
+      <c r="CW16">
+        <v>6.293706293706295</v>
+      </c>
+      <c r="CX16">
+        <v>565.584701501665</v>
+      </c>
+      <c r="CY16">
+        <v>154.5639289448413</v>
+      </c>
+      <c r="CZ16">
+        <v>0.7572222222222222</v>
+      </c>
+      <c r="DA16">
+        <v>8.237986270022883</v>
+      </c>
+      <c r="DB16">
+        <v>593.6707628357274</v>
+      </c>
+      <c r="DC16">
+        <v>271.4322509673583</v>
+      </c>
+      <c r="DD16">
+        <v>0.7822222222222222</v>
+      </c>
+      <c r="DE16">
+        <v>9.183673469387752</v>
+      </c>
+      <c r="DF16">
+        <v>601.0075802900149</v>
+      </c>
+      <c r="DG16">
+        <v>444.7800900742382</v>
+      </c>
     </row>
-    <row r="17" spans="1:63">
+    <row r="17" spans="1:111">
       <c r="A17">
         <v>0.3994</v>
       </c>
@@ -3180,7 +5196,7 @@
         <v>15</v>
       </c>
       <c r="W17" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD17">
         <v>20.4691725028846</v>
@@ -3284,8 +5300,152 @@
       <c r="BK17">
         <v>476.3087337820074</v>
       </c>
+      <c r="BL17">
+        <v>-0.25</v>
+      </c>
+      <c r="BM17">
+        <v>1.6</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>-0.2</v>
+      </c>
+      <c r="BQ17">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="BR17">
+        <v>33.30551699070186</v>
+      </c>
+      <c r="BS17">
+        <v>0.6770906476036568</v>
+      </c>
+      <c r="BT17">
+        <v>-0.04999999999999999</v>
+      </c>
+      <c r="BU17">
+        <v>1.904761904761905</v>
+      </c>
+      <c r="BV17">
+        <v>131.4412072436557</v>
+      </c>
+      <c r="BW17">
+        <v>6.658740106231969</v>
+      </c>
+      <c r="BX17">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="BY17">
+        <v>2.105263157894737</v>
+      </c>
+      <c r="BZ17">
+        <v>195.1596445979359</v>
+      </c>
+      <c r="CA17">
+        <v>11.61525033517792</v>
+      </c>
+      <c r="CB17">
+        <v>0.15</v>
+      </c>
+      <c r="CC17">
+        <v>2.352941176470588</v>
+      </c>
+      <c r="CD17">
+        <v>257.2461059442013</v>
+      </c>
+      <c r="CE17">
+        <v>19.44372140265454</v>
+      </c>
+      <c r="CF17">
+        <v>0.25</v>
+      </c>
+      <c r="CG17">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="CH17">
+        <v>317.3844915606897</v>
+      </c>
+      <c r="CI17">
+        <v>29.75514932819403</v>
+      </c>
+      <c r="CJ17">
+        <v>0.35</v>
+      </c>
+      <c r="CK17">
+        <v>3.076923076923077</v>
+      </c>
+      <c r="CL17">
+        <v>375.135934615267</v>
+      </c>
+      <c r="CM17">
+        <v>45.87659060462121</v>
+      </c>
+      <c r="CN17">
+        <v>0.45</v>
+      </c>
+      <c r="CO17">
+        <v>3.636363636363636</v>
+      </c>
+      <c r="CP17">
+        <v>429.8607970696538</v>
+      </c>
+      <c r="CQ17">
+        <v>65.23278173541253</v>
+      </c>
+      <c r="CR17">
+        <v>0.55</v>
+      </c>
+      <c r="CS17">
+        <v>4.444444444444445</v>
+      </c>
+      <c r="CT17">
+        <v>480.5643874206926</v>
+      </c>
+      <c r="CU17">
+        <v>99.11683172511195</v>
+      </c>
+      <c r="CV17">
+        <v>0.65</v>
+      </c>
+      <c r="CW17">
+        <v>5.714285714285714</v>
+      </c>
+      <c r="CX17">
+        <v>525.5523254517101</v>
+      </c>
+      <c r="CY17">
+        <v>156.781424755854</v>
+      </c>
+      <c r="CZ17">
+        <v>0.725</v>
+      </c>
+      <c r="DA17">
+        <v>7.272727272727272</v>
+      </c>
+      <c r="DB17">
+        <v>553.6689260027812</v>
+      </c>
+      <c r="DC17">
+        <v>276.6664828012285</v>
+      </c>
+      <c r="DD17">
+        <v>0.75</v>
+      </c>
+      <c r="DE17">
+        <v>8</v>
+      </c>
+      <c r="DF17">
+        <v>561.5099751827789</v>
+      </c>
+      <c r="DG17">
+        <v>454.4390920824114</v>
+      </c>
     </row>
-    <row r="18" spans="1:63">
+    <row r="18" spans="1:111">
       <c r="A18">
         <v>0.7453200000000021</v>
       </c>
@@ -3350,7 +5510,7 @@
         <v>16</v>
       </c>
       <c r="W18" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD18">
         <v>46.76858673567919</v>
@@ -3454,8 +5614,152 @@
       <c r="BK18">
         <v>1010.82057807174</v>
       </c>
+      <c r="BL18">
+        <v>-0.2844444444444444</v>
+      </c>
+      <c r="BM18">
+        <v>1.557093425605536</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>-0.2344444444444445</v>
+      </c>
+      <c r="BQ18">
+        <v>1.62016201620162</v>
+      </c>
+      <c r="BR18">
+        <v>70.88108092509491</v>
+      </c>
+      <c r="BS18">
+        <v>0.850175895234769</v>
+      </c>
+      <c r="BT18">
+        <v>-0.08444444444444443</v>
+      </c>
+      <c r="BU18">
+        <v>1.844262295081967</v>
+      </c>
+      <c r="BV18">
+        <v>279.8575824746378</v>
+      </c>
+      <c r="BW18">
+        <v>8.365593370352697</v>
+      </c>
+      <c r="BX18">
+        <v>0.01555555555555554</v>
+      </c>
+      <c r="BY18">
+        <v>2.031602708803612</v>
+      </c>
+      <c r="BZ18">
+        <v>415.679089572395</v>
+      </c>
+      <c r="CA18">
+        <v>16.14827538914253</v>
+      </c>
+      <c r="CB18">
+        <v>0.1155555555555556</v>
+      </c>
+      <c r="CC18">
+        <v>2.261306532663317</v>
+      </c>
+      <c r="CD18">
+        <v>548.1752830062857</v>
+      </c>
+      <c r="CE18">
+        <v>29.36412459907656</v>
+      </c>
+      <c r="CF18">
+        <v>0.2155555555555556</v>
+      </c>
+      <c r="CG18">
+        <v>2.549575070821529</v>
+      </c>
+      <c r="CH18">
+        <v>676.729346675643</v>
+      </c>
+      <c r="CI18">
+        <v>46.04512059013125</v>
+      </c>
+      <c r="CJ18">
+        <v>0.3155555555555555</v>
+      </c>
+      <c r="CK18">
+        <v>2.922077922077922</v>
+      </c>
+      <c r="CL18">
+        <v>800.496331979544</v>
+      </c>
+      <c r="CM18">
+        <v>68.35128951084262</v>
+      </c>
+      <c r="CN18">
+        <v>0.4155555555555555</v>
+      </c>
+      <c r="CO18">
+        <v>3.422053231939163</v>
+      </c>
+      <c r="CP18">
+        <v>918.2662154273752</v>
+      </c>
+      <c r="CQ18">
+        <v>101.4105597338586</v>
+      </c>
+      <c r="CR18">
+        <v>0.5155555555555555</v>
+      </c>
+      <c r="CS18">
+        <v>4.128440366972477</v>
+      </c>
+      <c r="CT18">
+        <v>1028.201873978777</v>
+      </c>
+      <c r="CU18">
+        <v>151.4785177139045</v>
+      </c>
+      <c r="CV18">
+        <v>0.6155555555555556</v>
+      </c>
+      <c r="CW18">
+        <v>5.202312138728325</v>
+      </c>
+      <c r="CX18">
+        <v>1127.280250068852</v>
+      </c>
+      <c r="CY18">
+        <v>243.6680174861065</v>
+      </c>
+      <c r="CZ18">
+        <v>0.6905555555555556</v>
+      </c>
+      <c r="DA18">
+        <v>6.463195691202873</v>
+      </c>
+      <c r="DB18">
+        <v>1191.276401686153</v>
+      </c>
+      <c r="DC18">
+        <v>394.8297276924775</v>
+      </c>
+      <c r="DD18">
+        <v>0.7155555555555555</v>
+      </c>
+      <c r="DE18">
+        <v>7.031249999999998</v>
+      </c>
+      <c r="DF18">
+        <v>1209.900649862019</v>
+      </c>
+      <c r="DG18">
+        <v>533.3399103934809</v>
+      </c>
     </row>
-    <row r="19" spans="1:63">
+    <row r="19" spans="1:111">
       <c r="A19">
         <v>0.4626363636363637</v>
       </c>
@@ -3520,7 +5824,7 @@
         <v>17</v>
       </c>
       <c r="W19" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD19">
         <v>23.73291813855379</v>
@@ -3624,8 +5928,152 @@
       <c r="BK19">
         <v>552.514253602457</v>
       </c>
+      <c r="BL19">
+        <v>-0.3211111111111111</v>
+      </c>
+      <c r="BM19">
+        <v>1.513877207737595</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>-0.2711111111111111</v>
+      </c>
+      <c r="BQ19">
+        <v>1.573426573426574</v>
+      </c>
+      <c r="BR19">
+        <v>38.85678571809209</v>
+      </c>
+      <c r="BS19">
+        <v>0.6819265151566608</v>
+      </c>
+      <c r="BT19">
+        <v>-0.1211111111111111</v>
+      </c>
+      <c r="BU19">
+        <v>1.78394449950446</v>
+      </c>
+      <c r="BV19">
+        <v>153.4845070417752</v>
+      </c>
+      <c r="BW19">
+        <v>6.713785384234256</v>
+      </c>
+      <c r="BX19">
+        <v>-0.02111111111111108</v>
+      </c>
+      <c r="BY19">
+        <v>1.958650707290533</v>
+      </c>
+      <c r="BZ19">
+        <v>228.0586870532894</v>
+      </c>
+      <c r="CA19">
+        <v>11.7223723608516</v>
+      </c>
+      <c r="CB19">
+        <v>0.07888888888888895</v>
+      </c>
+      <c r="CC19">
+        <v>2.171290711700845</v>
+      </c>
+      <c r="CD19">
+        <v>300.8893061111528</v>
+      </c>
+      <c r="CE19">
+        <v>19.64618909235261</v>
+      </c>
+      <c r="CF19">
+        <v>0.1788888888888889</v>
+      </c>
+      <c r="CG19">
+        <v>2.435723951285521</v>
+      </c>
+      <c r="CH19">
+        <v>371.6669005678464</v>
+      </c>
+      <c r="CI19">
+        <v>30.11024343009066</v>
+      </c>
+      <c r="CJ19">
+        <v>0.2788888888888889</v>
+      </c>
+      <c r="CK19">
+        <v>2.773497688751926</v>
+      </c>
+      <c r="CL19">
+        <v>439.973081064499</v>
+      </c>
+      <c r="CM19">
+        <v>46.51612716057018</v>
+      </c>
+      <c r="CN19">
+        <v>0.3788888888888889</v>
+      </c>
+      <c r="CO19">
+        <v>3.220035778175313</v>
+      </c>
+      <c r="CP19">
+        <v>505.2187781598694</v>
+      </c>
+      <c r="CQ19">
+        <v>66.32224346226675</v>
+      </c>
+      <c r="CR19">
+        <v>0.478888888888889</v>
+      </c>
+      <c r="CS19">
+        <v>3.837953091684435</v>
+      </c>
+      <c r="CT19">
+        <v>566.5297789948138</v>
+      </c>
+      <c r="CU19">
+        <v>101.1708515438683</v>
+      </c>
+      <c r="CV19">
+        <v>0.578888888888889</v>
+      </c>
+      <c r="CW19">
+        <v>4.749340369393141</v>
+      </c>
+      <c r="CX19">
+        <v>622.5129899028635</v>
+      </c>
+      <c r="CY19">
+        <v>161.02818823711</v>
+      </c>
+      <c r="CZ19">
+        <v>0.653888888888889</v>
+      </c>
+      <c r="DA19">
+        <v>5.7784911717496</v>
+      </c>
+      <c r="DB19">
+        <v>659.5967838026509</v>
+      </c>
+      <c r="DC19">
+        <v>286.3260105624166</v>
+      </c>
+      <c r="DD19">
+        <v>0.6788888888888889</v>
+      </c>
+      <c r="DE19">
+        <v>6.228373702422145</v>
+      </c>
+      <c r="DF19">
+        <v>670.7102377542226</v>
+      </c>
+      <c r="DG19">
+        <v>471.9619320959723</v>
+      </c>
     </row>
-    <row r="20" spans="1:63">
+    <row r="20" spans="1:111">
       <c r="A20">
         <v>0.4809666666666667</v>
       </c>
@@ -3690,7 +6138,7 @@
         <v>18</v>
       </c>
       <c r="W20" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD20">
         <v>24.58392342640228</v>
@@ -3794,8 +6242,152 @@
       <c r="BK20">
         <v>574.37136982599</v>
       </c>
+      <c r="BL20">
+        <v>-0.36</v>
+      </c>
+      <c r="BM20">
+        <v>1.470588235294118</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>-0.31</v>
+      </c>
+      <c r="BQ20">
+        <v>1.526717557251908</v>
+      </c>
+      <c r="BR20">
+        <v>40.51509940992438</v>
+      </c>
+      <c r="BS20">
+        <v>0.6844579163588616</v>
+      </c>
+      <c r="BT20">
+        <v>-0.16</v>
+      </c>
+      <c r="BU20">
+        <v>1.724137931034483</v>
+      </c>
+      <c r="BV20">
+        <v>160.1046632985245</v>
+      </c>
+      <c r="BW20">
+        <v>6.742429172628995</v>
+      </c>
+      <c r="BX20">
+        <v>-0.06</v>
+      </c>
+      <c r="BY20">
+        <v>1.886792452830188</v>
+      </c>
+      <c r="BZ20">
+        <v>237.9822261667657</v>
+      </c>
+      <c r="CA20">
+        <v>11.77784064370502</v>
+      </c>
+      <c r="CB20">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="CC20">
+        <v>2.083333333333333</v>
+      </c>
+      <c r="CD20">
+        <v>314.1223961496336</v>
+      </c>
+      <c r="CE20">
+        <v>19.7503976787979</v>
+      </c>
+      <c r="CF20">
+        <v>0.14</v>
+      </c>
+      <c r="CG20">
+        <v>2.325581395348837</v>
+      </c>
+      <c r="CH20">
+        <v>388.2302996463982</v>
+      </c>
+      <c r="CI20">
+        <v>30.29163732444545</v>
+      </c>
+      <c r="CJ20">
+        <v>0.24</v>
+      </c>
+      <c r="CK20">
+        <v>2.631578947368421</v>
+      </c>
+      <c r="CL20">
+        <v>459.9123329293258</v>
+      </c>
+      <c r="CM20">
+        <v>46.83968239822789</v>
+      </c>
+      <c r="CN20">
+        <v>0.34</v>
+      </c>
+      <c r="CO20">
+        <v>3.03030303030303</v>
+      </c>
+      <c r="CP20">
+        <v>528.6233006594509</v>
+      </c>
+      <c r="CQ20">
+        <v>66.86638288428637</v>
+      </c>
+      <c r="CR20">
+        <v>0.4400000000000001</v>
+      </c>
+      <c r="CS20">
+        <v>3.571428571428572</v>
+      </c>
+      <c r="CT20">
+        <v>593.5713665520553</v>
+      </c>
+      <c r="CU20">
+        <v>102.1784805386196</v>
+      </c>
+      <c r="CV20">
+        <v>0.54</v>
+      </c>
+      <c r="CW20">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="CX20">
+        <v>653.5317074642747</v>
+      </c>
+      <c r="CY20">
+        <v>163.0562397274467</v>
+      </c>
+      <c r="CZ20">
+        <v>0.615</v>
+      </c>
+      <c r="DA20">
+        <v>5.194805194805195</v>
+      </c>
+      <c r="DB20">
+        <v>694.0385025748207</v>
+      </c>
+      <c r="DC20">
+        <v>290.7983167393195</v>
+      </c>
+      <c r="DD20">
+        <v>0.64</v>
+      </c>
+      <c r="DE20">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="DF20">
+        <v>706.4355565475993</v>
+      </c>
+      <c r="DG20">
+        <v>479.9641100335651</v>
+      </c>
     </row>
-    <row r="21" spans="1:63">
+    <row r="21" spans="1:111">
       <c r="A21">
         <v>0.7258</v>
       </c>
@@ -3860,7 +6452,7 @@
         <v>19</v>
       </c>
       <c r="W21" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD21">
         <v>41.58527196315286</v>
@@ -3964,8 +6556,152 @@
       <c r="BK21">
         <v>926.0935288866947</v>
       </c>
+      <c r="BL21">
+        <v>-0.4011111111111111</v>
+      </c>
+      <c r="BM21">
+        <v>1.427438540840603</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>-0.3511111111111111</v>
+      </c>
+      <c r="BQ21">
+        <v>1.480263157894737</v>
+      </c>
+      <c r="BR21">
+        <v>65.52524831498668</v>
+      </c>
+      <c r="BS21">
+        <v>0.722619252070408</v>
+      </c>
+      <c r="BT21">
+        <v>-0.2011111111111111</v>
+      </c>
+      <c r="BU21">
+        <v>1.665124884366328</v>
+      </c>
+      <c r="BV21">
+        <v>259.049471688455</v>
+      </c>
+      <c r="BW21">
+        <v>7.122224014989251</v>
+      </c>
+      <c r="BX21">
+        <v>-0.1011111111111111</v>
+      </c>
+      <c r="BY21">
+        <v>1.816347124117053</v>
+      </c>
+      <c r="BZ21">
+        <v>385.1930901613148</v>
+      </c>
+      <c r="CA21">
+        <v>12.7705608117664</v>
+      </c>
+      <c r="CB21">
+        <v>-0.001111111111111063</v>
+      </c>
+      <c r="CC21">
+        <v>1.997780244173141</v>
+      </c>
+      <c r="CD21">
+        <v>508.6531159582867</v>
+      </c>
+      <c r="CE21">
+        <v>21.91178912042263</v>
+      </c>
+      <c r="CF21">
+        <v>0.09888888888888892</v>
+      </c>
+      <c r="CG21">
+        <v>2.219482120838471</v>
+      </c>
+      <c r="CH21">
+        <v>628.9942304271532</v>
+      </c>
+      <c r="CI21">
+        <v>33.85512858658426</v>
+      </c>
+      <c r="CJ21">
+        <v>0.1988888888888889</v>
+      </c>
+      <c r="CK21">
+        <v>2.496532593619972</v>
+      </c>
+      <c r="CL21">
+        <v>745.6425047029056</v>
+      </c>
+      <c r="CM21">
+        <v>51.82520968611089</v>
+      </c>
+      <c r="CN21">
+        <v>0.2988888888888889</v>
+      </c>
+      <c r="CO21">
+        <v>2.852614896988906</v>
+      </c>
+      <c r="CP21">
+        <v>857.8153053600296</v>
+      </c>
+      <c r="CQ21">
+        <v>74.93183181737486</v>
+      </c>
+      <c r="CR21">
+        <v>0.398888888888889</v>
+      </c>
+      <c r="CS21">
+        <v>3.327171903881701</v>
+      </c>
+      <c r="CT21">
+        <v>964.3988516165678</v>
+      </c>
+      <c r="CU21">
+        <v>114.0652477901753</v>
+      </c>
+      <c r="CV21">
+        <v>0.4988888888888889</v>
+      </c>
+      <c r="CW21">
+        <v>3.991130820399114</v>
+      </c>
+      <c r="CX21">
+        <v>1063.717139355709</v>
+      </c>
+      <c r="CY21">
+        <v>183.1482895565253</v>
+      </c>
+      <c r="CZ21">
+        <v>0.5738888888888889</v>
+      </c>
+      <c r="DA21">
+        <v>4.69361147327249</v>
+      </c>
+      <c r="DB21">
+        <v>1131.865382951825</v>
+      </c>
+      <c r="DC21">
+        <v>319.497782850084</v>
+      </c>
+      <c r="DD21">
+        <v>0.5988888888888889</v>
+      </c>
+      <c r="DE21">
+        <v>4.986149584487535</v>
+      </c>
+      <c r="DF21">
+        <v>1153.04853064742</v>
+      </c>
+      <c r="DG21">
+        <v>502.6759932951365</v>
+      </c>
     </row>
-    <row r="22" spans="1:63">
+    <row r="22" spans="1:111">
       <c r="A22">
         <v>0.950666666666669</v>
       </c>
@@ -4030,7 +6766,7 @@
         <v>20</v>
       </c>
       <c r="W22" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD22">
         <v>59.47272273625706</v>
@@ -4134,8 +6870,152 @@
       <c r="BK22">
         <v>1290.31394391952</v>
       </c>
+      <c r="BL22">
+        <v>-0.4444444444444444</v>
+      </c>
+      <c r="BM22">
+        <v>1.384615384615385</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <v>-0.3944444444444444</v>
+      </c>
+      <c r="BQ22">
+        <v>1.434262948207171</v>
+      </c>
+      <c r="BR22">
+        <v>91.58060294492734</v>
+      </c>
+      <c r="BS22">
+        <v>0.8408089294691569</v>
+      </c>
+      <c r="BT22">
+        <v>-0.2444444444444444</v>
+      </c>
+      <c r="BU22">
+        <v>1.607142857142857</v>
+      </c>
+      <c r="BV22">
+        <v>362.210706599826</v>
+      </c>
+      <c r="BW22">
+        <v>8.291547533206947</v>
+      </c>
+      <c r="BX22">
+        <v>-0.1444444444444444</v>
+      </c>
+      <c r="BY22">
+        <v>1.747572815533981</v>
+      </c>
+      <c r="BZ22">
+        <v>538.7763030753446</v>
+      </c>
+      <c r="CA22">
+        <v>15.87321503770574</v>
+      </c>
+      <c r="CB22">
+        <v>-0.04444444444444445</v>
+      </c>
+      <c r="CC22">
+        <v>1.914893617021276</v>
+      </c>
+      <c r="CD22">
+        <v>711.7615895700078</v>
+      </c>
+      <c r="CE22">
+        <v>28.70994727766145</v>
+      </c>
+      <c r="CF22">
+        <v>0.05555555555555558</v>
+      </c>
+      <c r="CG22">
+        <v>2.117647058823529</v>
+      </c>
+      <c r="CH22">
+        <v>880.6116648349969</v>
+      </c>
+      <c r="CI22">
+        <v>45.05207976957598</v>
+      </c>
+      <c r="CJ22">
+        <v>0.1555555555555556</v>
+      </c>
+      <c r="CK22">
+        <v>2.368421052631579</v>
+      </c>
+      <c r="CL22">
+        <v>1044.603620982393</v>
+      </c>
+      <c r="CM22">
+        <v>67.3509430926014</v>
+      </c>
+      <c r="CN22">
+        <v>0.2555555555555555</v>
+      </c>
+      <c r="CO22">
+        <v>2.686567164179104</v>
+      </c>
+      <c r="CP22">
+        <v>1202.766278711509</v>
+      </c>
+      <c r="CQ22">
+        <v>100.0424814967329</v>
+      </c>
+      <c r="CR22">
+        <v>0.3555555555555555</v>
+      </c>
+      <c r="CS22">
+        <v>3.103448275862069</v>
+      </c>
+      <c r="CT22">
+        <v>1353.743777263083</v>
+      </c>
+      <c r="CU22">
+        <v>150.690454960762</v>
+      </c>
+      <c r="CV22">
+        <v>0.4555555555555556</v>
+      </c>
+      <c r="CW22">
+        <v>3.673469387755103</v>
+      </c>
+      <c r="CX22">
+        <v>1495.547143544171</v>
+      </c>
+      <c r="CY22">
+        <v>244.5274623859888</v>
+      </c>
+      <c r="CZ22">
+        <v>0.5305555555555557</v>
+      </c>
+      <c r="DA22">
+        <v>4.2603550295858</v>
+      </c>
+      <c r="DB22">
+        <v>1594.071116070478</v>
+      </c>
+      <c r="DC22">
+        <v>403.9817220611731</v>
+      </c>
+      <c r="DD22">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="DE22">
+        <v>4.5</v>
+      </c>
+      <c r="DF22">
+        <v>1625.059012270451</v>
+      </c>
+      <c r="DG22">
+        <v>559.7451081209183</v>
+      </c>
     </row>
-    <row r="23" spans="1:63">
+    <row r="23" spans="1:111">
       <c r="A23">
         <v>14.35399090909091</v>
       </c>
@@ -4203,7 +7083,7 @@
         <v>21</v>
       </c>
       <c r="W23" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X23">
         <v>41.34902092260528</v>
@@ -4296,7 +7176,7 @@
         <v>17804.89776322222</v>
       </c>
     </row>
-    <row r="24" spans="1:63">
+    <row r="24" spans="1:111">
       <c r="A24">
         <v>7.427811111111112</v>
       </c>
@@ -4364,7 +7244,7 @@
         <v>22</v>
       </c>
       <c r="W24" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X24">
         <v>37.72539687314127</v>
@@ -4457,7 +7337,7 @@
         <v>15575.43562221975</v>
       </c>
     </row>
-    <row r="25" spans="1:63">
+    <row r="25" spans="1:111">
       <c r="A25">
         <v>9.853666666666665</v>
       </c>
@@ -4525,7 +7405,7 @@
         <v>23</v>
       </c>
       <c r="W25" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X25">
         <v>38.74510329315299</v>
@@ -4618,7 +7498,7 @@
         <v>18091.54721769626</v>
       </c>
     </row>
-    <row r="26" spans="1:63">
+    <row r="26" spans="1:111">
       <c r="A26">
         <v>13.04853636363633</v>
       </c>
@@ -4686,7 +7566,7 @@
         <v>24</v>
       </c>
       <c r="W26" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X26">
         <v>39.74001223436088</v>
@@ -4779,7 +7659,7 @@
         <v>22769.79985792884</v>
       </c>
     </row>
-    <row r="27" spans="1:63">
+    <row r="27" spans="1:111">
       <c r="A27">
         <v>10.50680000000001</v>
       </c>
@@ -4847,7 +7727,7 @@
         <v>25</v>
       </c>
       <c r="W27" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X27">
         <v>38.3251003357348</v>
@@ -4940,7 +7820,7 @@
         <v>22347.66605052387</v>
       </c>
     </row>
-    <row r="28" spans="1:63">
+    <row r="28" spans="1:111">
       <c r="A28">
         <v>9.114120000000012</v>
       </c>
@@ -5008,7 +7888,7 @@
         <v>26</v>
       </c>
       <c r="W28" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X28">
         <v>37.29257258411581</v>
@@ -5101,7 +7981,7 @@
         <v>20563.04928415797</v>
       </c>
     </row>
-    <row r="29" spans="1:63">
+    <row r="29" spans="1:111">
       <c r="A29">
         <v>9.284700000000001</v>
       </c>
@@ -5169,7 +8049,7 @@
         <v>27</v>
       </c>
       <c r="W29" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X29">
         <v>37.07296442223625</v>
@@ -5262,7 +8142,7 @@
         <v>24159.33371375441</v>
       </c>
     </row>
-    <row r="30" spans="1:63">
+    <row r="30" spans="1:111">
       <c r="A30">
         <v>18.01673636363646</v>
       </c>
@@ -5330,7 +8210,7 @@
         <v>28</v>
       </c>
       <c r="W30" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X30">
         <v>40.02798752377641</v>
@@ -5423,7 +8303,7 @@
         <v>34881.90852143164</v>
       </c>
     </row>
-    <row r="31" spans="1:63">
+    <row r="31" spans="1:111">
       <c r="A31">
         <v>4.047760000000021</v>
       </c>
@@ -5488,7 +8368,7 @@
         <v>29</v>
       </c>
       <c r="W31" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD31">
         <v>304.0110960608</v>
@@ -5592,8 +8472,152 @@
       <c r="BK31">
         <v>6261.368058888548</v>
       </c>
+      <c r="BL31">
+        <v>-0.9344444444444444</v>
+      </c>
+      <c r="BM31">
+        <v>1.033888569787478</v>
+      </c>
+      <c r="BN31">
+        <v>0</v>
+      </c>
+      <c r="BO31">
+        <v>0</v>
+      </c>
+      <c r="BP31">
+        <v>-0.8844444444444444</v>
+      </c>
+      <c r="BQ31">
+        <v>1.061320754716981</v>
+      </c>
+      <c r="BR31">
+        <v>457.6020733280201</v>
+      </c>
+      <c r="BS31">
+        <v>1.191668022145463</v>
+      </c>
+      <c r="BT31">
+        <v>-0.7344444444444445</v>
+      </c>
+      <c r="BU31">
+        <v>1.153106982703395</v>
+      </c>
+      <c r="BV31">
+        <v>1815.866359393511</v>
+      </c>
+      <c r="BW31">
+        <v>11.80055596728365</v>
+      </c>
+      <c r="BX31">
+        <v>-0.6344444444444444</v>
+      </c>
+      <c r="BY31">
+        <v>1.223657375934738</v>
+      </c>
+      <c r="BZ31">
+        <v>2708.182833123413</v>
+      </c>
+      <c r="CA31">
+        <v>25.77831979228892</v>
+      </c>
+      <c r="CB31">
+        <v>-0.5344444444444444</v>
+      </c>
+      <c r="CC31">
+        <v>1.303403330919623</v>
+      </c>
+      <c r="CD31">
+        <v>3588.773153468546</v>
+      </c>
+      <c r="CE31">
+        <v>48.84192471200721</v>
+      </c>
+      <c r="CF31">
+        <v>-0.4344444444444444</v>
+      </c>
+      <c r="CG31">
+        <v>1.39426800929512</v>
+      </c>
+      <c r="CH31">
+        <v>4456.429356063509</v>
+      </c>
+      <c r="CI31">
+        <v>78.43584185508192</v>
+      </c>
+      <c r="CJ31">
+        <v>-0.3344444444444444</v>
+      </c>
+      <c r="CK31">
+        <v>1.498751040799334</v>
+      </c>
+      <c r="CL31">
+        <v>5309.708373922191</v>
+      </c>
+      <c r="CM31">
+        <v>118.9085563065298</v>
+      </c>
+      <c r="CN31">
+        <v>-0.2344444444444446</v>
+      </c>
+      <c r="CO31">
+        <v>1.62016201620162</v>
+      </c>
+      <c r="CP31">
+        <v>6146.862895319284</v>
+      </c>
+      <c r="CQ31">
+        <v>176.6616287912974</v>
+      </c>
+      <c r="CR31">
+        <v>-0.1344444444444444</v>
+      </c>
+      <c r="CS31">
+        <v>1.762977473065622</v>
+      </c>
+      <c r="CT31">
+        <v>6965.744026784602</v>
+      </c>
+      <c r="CU31">
+        <v>268.9486613758218</v>
+      </c>
+      <c r="CV31">
+        <v>-0.03444444444444439</v>
+      </c>
+      <c r="CW31">
+        <v>1.933404940923738</v>
+      </c>
+      <c r="CX31">
+        <v>7763.660501669936</v>
+      </c>
+      <c r="CY31">
+        <v>420.9261621364975</v>
+      </c>
+      <c r="CZ31">
+        <v>0.04055555555555557</v>
+      </c>
+      <c r="DA31">
+        <v>2.084539664157499</v>
+      </c>
+      <c r="DB31">
+        <v>8346.304640790951</v>
+      </c>
+      <c r="DC31">
+        <v>658.297964111008</v>
+      </c>
+      <c r="DD31">
+        <v>0.06555555555555559</v>
+      </c>
+      <c r="DE31">
+        <v>2.140309155766944</v>
+      </c>
+      <c r="DF31">
+        <v>8537.168474274344</v>
+      </c>
+      <c r="DG31">
+        <v>874.7735682019334</v>
+      </c>
     </row>
-    <row r="32" spans="1:63">
+    <row r="32" spans="1:111">
       <c r="A32">
         <v>3.6853</v>
       </c>
@@ -5658,7 +8682,7 @@
         <v>30</v>
       </c>
       <c r="W32" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD32">
         <v>269.2302885242615</v>
@@ -5762,8 +8786,152 @@
       <c r="BK32">
         <v>5575.925118248249</v>
       </c>
+      <c r="BL32">
+        <v>-1</v>
+      </c>
+      <c r="BM32">
+        <v>1</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
+      <c r="BO32">
+        <v>0</v>
+      </c>
+      <c r="BP32">
+        <v>-0.95</v>
+      </c>
+      <c r="BQ32">
+        <v>1.025641025641026</v>
+      </c>
+      <c r="BR32">
+        <v>408.8423047808962</v>
+      </c>
+      <c r="BS32">
+        <v>1.167429556136014</v>
+      </c>
+      <c r="BT32">
+        <v>-0.8</v>
+      </c>
+      <c r="BU32">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="BV32">
+        <v>1622.872479084599</v>
+      </c>
+      <c r="BW32">
+        <v>11.56495433553501</v>
+      </c>
+      <c r="BX32">
+        <v>-0.7</v>
+      </c>
+      <c r="BY32">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="BZ32">
+        <v>2420.922855138024</v>
+      </c>
+      <c r="CA32">
+        <v>25.04264284260883</v>
+      </c>
+      <c r="CB32">
+        <v>-0.6</v>
+      </c>
+      <c r="CC32">
+        <v>1.25</v>
+      </c>
+      <c r="CD32">
+        <v>3208.966992496081</v>
+      </c>
+      <c r="CE32">
+        <v>47.38667251165438</v>
+      </c>
+      <c r="CF32">
+        <v>-0.5</v>
+      </c>
+      <c r="CG32">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CH32">
+        <v>3986.01840334271</v>
+      </c>
+      <c r="CI32">
+        <v>76.04778081068335</v>
+      </c>
+      <c r="CJ32">
+        <v>-0.4</v>
+      </c>
+      <c r="CK32">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="CL32">
+        <v>4750.907360862503</v>
+      </c>
+      <c r="CM32">
+        <v>115.1427277458177</v>
+      </c>
+      <c r="CN32">
+        <v>-0.3</v>
+      </c>
+      <c r="CO32">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="CP32">
+        <v>5502.229645006937</v>
+      </c>
+      <c r="CQ32">
+        <v>171.432469777245</v>
+      </c>
+      <c r="CR32">
+        <v>-0.2</v>
+      </c>
+      <c r="CS32">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CT32">
+        <v>6238.27549128056</v>
+      </c>
+      <c r="CU32">
+        <v>260.9805478971713</v>
+      </c>
+      <c r="CV32">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="CW32">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="CX32">
+        <v>6956.928643451868</v>
+      </c>
+      <c r="CY32">
+        <v>410.6543462751176</v>
+      </c>
+      <c r="CZ32">
+        <v>-0.02500000000000013</v>
+      </c>
+      <c r="DA32">
+        <v>1.951219512195122</v>
+      </c>
+      <c r="DB32">
+        <v>7482.924693652218</v>
+      </c>
+      <c r="DC32">
+        <v>645.0606923995109</v>
+      </c>
+      <c r="DD32">
+        <v>0</v>
+      </c>
+      <c r="DE32">
+        <v>2</v>
+      </c>
+      <c r="DF32">
+        <v>7655.518775363123</v>
+      </c>
+      <c r="DG32">
+        <v>855.6097760351233</v>
+      </c>
     </row>
-    <row r="33" spans="1:63">
+    <row r="33" spans="1:111">
       <c r="A33">
         <v>1.368100000000003</v>
       </c>
@@ -5828,7 +8996,7 @@
         <v>31</v>
       </c>
       <c r="W33" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD33">
         <v>87.3288289154754</v>
@@ -5932,8 +9100,152 @@
       <c r="BK33">
         <v>1955.675515312527</v>
       </c>
+      <c r="BL33">
+        <v>-1</v>
+      </c>
+      <c r="BM33">
+        <v>1</v>
+      </c>
+      <c r="BN33">
+        <v>0</v>
+      </c>
+      <c r="BO33">
+        <v>0</v>
+      </c>
+      <c r="BP33">
+        <v>-0.95</v>
+      </c>
+      <c r="BQ33">
+        <v>1.025641025641026</v>
+      </c>
+      <c r="BR33">
+        <v>143.3955564552369</v>
+      </c>
+      <c r="BS33">
+        <v>0.7358408478420122</v>
+      </c>
+      <c r="BT33">
+        <v>-0.8</v>
+      </c>
+      <c r="BU33">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="BV33">
+        <v>569.199174040807</v>
+      </c>
+      <c r="BW33">
+        <v>7.289489767314713</v>
+      </c>
+      <c r="BX33">
+        <v>-0.7</v>
+      </c>
+      <c r="BY33">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="BZ33">
+        <v>849.103862022693</v>
+      </c>
+      <c r="CA33">
+        <v>12.95615730776045</v>
+      </c>
+      <c r="CB33">
+        <v>-0.6</v>
+      </c>
+      <c r="CC33">
+        <v>1.25</v>
+      </c>
+      <c r="CD33">
+        <v>1125.499005740281</v>
+      </c>
+      <c r="CE33">
+        <v>22.09077606449047</v>
+      </c>
+      <c r="CF33">
+        <v>-0.5</v>
+      </c>
+      <c r="CG33">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CH33">
+        <v>1398.038608784525</v>
+      </c>
+      <c r="CI33">
+        <v>34.21388056893785</v>
+      </c>
+      <c r="CJ33">
+        <v>-0.4</v>
+      </c>
+      <c r="CK33">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="CL33">
+        <v>1666.312406303587</v>
+      </c>
+      <c r="CM33">
+        <v>53.02080704309799</v>
+      </c>
+      <c r="CN33">
+        <v>-0.3</v>
+      </c>
+      <c r="CO33">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="CP33">
+        <v>1929.82788831773</v>
+      </c>
+      <c r="CQ33">
+        <v>76.8766544744916</v>
+      </c>
+      <c r="CR33">
+        <v>-0.2</v>
+      </c>
+      <c r="CS33">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CT33">
+        <v>2187.985379528271</v>
+      </c>
+      <c r="CU33">
+        <v>118.610353503071</v>
+      </c>
+      <c r="CV33">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="CW33">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="CX33">
+        <v>2440.042633508242</v>
+      </c>
+      <c r="CY33">
+        <v>192.7967047042169</v>
+      </c>
+      <c r="CZ33">
+        <v>-0.02500000000000002</v>
+      </c>
+      <c r="DA33">
+        <v>1.951219512195122</v>
+      </c>
+      <c r="DB33">
+        <v>2624.528180697781</v>
+      </c>
+      <c r="DC33">
+        <v>345.2172264685846</v>
+      </c>
+      <c r="DD33">
+        <v>0</v>
+      </c>
+      <c r="DE33">
+        <v>2</v>
+      </c>
+      <c r="DF33">
+        <v>2685.063071775355</v>
+      </c>
+      <c r="DG33">
+        <v>559.7614391489407</v>
+      </c>
     </row>
-    <row r="34" spans="1:63">
+    <row r="34" spans="1:111">
       <c r="A34">
         <v>6.711449999999971</v>
       </c>
@@ -6001,7 +9313,7 @@
         <v>32</v>
       </c>
       <c r="W34" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X34">
         <v>34.15193365248533</v>
@@ -6094,7 +9406,7 @@
         <v>23817.02740153292</v>
       </c>
     </row>
-    <row r="35" spans="1:63">
+    <row r="35" spans="1:111">
       <c r="A35">
         <v>19.03181000000006</v>
       </c>
@@ -6162,7 +9474,7 @@
         <v>33</v>
       </c>
       <c r="W35" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X35">
         <v>39.12299797177348</v>
@@ -6255,7 +9567,7 @@
         <v>43777.38251040172</v>
       </c>
     </row>
-    <row r="36" spans="1:63">
+    <row r="36" spans="1:111">
       <c r="A36">
         <v>4.767</v>
       </c>
@@ -6320,7 +9632,7 @@
         <v>34</v>
       </c>
       <c r="W36" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD36">
         <v>353.8244824890226</v>
@@ -6424,8 +9736,152 @@
       <c r="BK36">
         <v>7304.23800182762</v>
       </c>
+      <c r="BL36">
+        <v>-1</v>
+      </c>
+      <c r="BM36">
+        <v>1</v>
+      </c>
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BO36">
+        <v>0</v>
+      </c>
+      <c r="BP36">
+        <v>-0.95</v>
+      </c>
+      <c r="BQ36">
+        <v>1.025641025641026</v>
+      </c>
+      <c r="BR36">
+        <v>535.5670020679173</v>
+      </c>
+      <c r="BS36">
+        <v>1.196455506882199</v>
+      </c>
+      <c r="BT36">
+        <v>-0.8</v>
+      </c>
+      <c r="BU36">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="BV36">
+        <v>2125.897780631239</v>
+      </c>
+      <c r="BW36">
+        <v>11.85249527807904</v>
+      </c>
+      <c r="BX36">
+        <v>-0.7</v>
+      </c>
+      <c r="BY36">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="BZ36">
+        <v>3171.311727290113</v>
+      </c>
+      <c r="CA36">
+        <v>25.89944169714686</v>
+      </c>
+      <c r="CB36">
+        <v>-0.6</v>
+      </c>
+      <c r="CC36">
+        <v>1.25</v>
+      </c>
+      <c r="CD36">
+        <v>4203.617903061808</v>
+      </c>
+      <c r="CE36">
+        <v>49.08791591827244</v>
+      </c>
+      <c r="CF36">
+        <v>-0.5</v>
+      </c>
+      <c r="CG36">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CH36">
+        <v>5221.524048520023</v>
+      </c>
+      <c r="CI36">
+        <v>78.86126667025904</v>
+      </c>
+      <c r="CJ36">
+        <v>-0.4</v>
+      </c>
+      <c r="CK36">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="CL36">
+        <v>6223.49786850733</v>
+      </c>
+      <c r="CM36">
+        <v>119.6068128162521</v>
+      </c>
+      <c r="CN36">
+        <v>-0.3</v>
+      </c>
+      <c r="CO36">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="CP36">
+        <v>7207.699891147079</v>
+      </c>
+      <c r="CQ36">
+        <v>177.7917011125408</v>
+      </c>
+      <c r="CR36">
+        <v>-0.2</v>
+      </c>
+      <c r="CS36">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CT36">
+        <v>8171.890393606372</v>
+      </c>
+      <c r="CU36">
+        <v>270.8362590414627</v>
+      </c>
+      <c r="CV36">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="CW36">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="CX36">
+        <v>9113.297165200893</v>
+      </c>
+      <c r="CY36">
+        <v>424.195071559801</v>
+      </c>
+      <c r="CZ36">
+        <v>-0.02500000000000002</v>
+      </c>
+      <c r="DA36">
+        <v>1.951219512195122</v>
+      </c>
+      <c r="DB36">
+        <v>9802.330869421734</v>
+      </c>
+      <c r="DC36">
+        <v>663.8498162905557</v>
+      </c>
+      <c r="DD36">
+        <v>0</v>
+      </c>
+      <c r="DE36">
+        <v>2</v>
+      </c>
+      <c r="DF36">
+        <v>10028.42218589181</v>
+      </c>
+      <c r="DG36">
+        <v>882.3675157772861</v>
+      </c>
     </row>
-    <row r="37" spans="1:63">
+    <row r="37" spans="1:111">
       <c r="A37">
         <v>6.833440000000048</v>
       </c>
@@ -6493,7 +9949,7 @@
         <v>35</v>
       </c>
       <c r="W37" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X37">
         <v>33.58842211599553</v>
@@ -6586,7 +10042,7 @@
         <v>26587.65348043538</v>
       </c>
     </row>
-    <row r="38" spans="1:63">
+    <row r="38" spans="1:111">
       <c r="A38">
         <v>5.1395</v>
       </c>
@@ -6651,7 +10107,7 @@
         <v>36</v>
       </c>
       <c r="W38" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD38">
         <v>382.1850337822037</v>
@@ -6755,8 +10211,152 @@
       <c r="BK38">
         <v>7891.05568866808</v>
       </c>
+      <c r="BL38">
+        <v>-1</v>
+      </c>
+      <c r="BM38">
+        <v>1</v>
+      </c>
+      <c r="BN38">
+        <v>0</v>
+      </c>
+      <c r="BO38">
+        <v>0</v>
+      </c>
+      <c r="BP38">
+        <v>-0.95</v>
+      </c>
+      <c r="BQ38">
+        <v>1.025641025641026</v>
+      </c>
+      <c r="BR38">
+        <v>578.5941034880706</v>
+      </c>
+      <c r="BS38">
+        <v>1.196455506882199</v>
+      </c>
+      <c r="BT38">
+        <v>-0.8</v>
+      </c>
+      <c r="BU38">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="BV38">
+        <v>2296.69101296802</v>
+      </c>
+      <c r="BW38">
+        <v>11.85249527807904</v>
+      </c>
+      <c r="BX38">
+        <v>-0.7</v>
+      </c>
+      <c r="BY38">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="BZ38">
+        <v>3426.092829931177</v>
+      </c>
+      <c r="CA38">
+        <v>25.89944169714686</v>
+      </c>
+      <c r="CB38">
+        <v>-0.6</v>
+      </c>
+      <c r="CC38">
+        <v>1.25</v>
+      </c>
+      <c r="CD38">
+        <v>4541.333806297525</v>
+      </c>
+      <c r="CE38">
+        <v>49.08791591827244</v>
+      </c>
+      <c r="CF38">
+        <v>-0.5</v>
+      </c>
+      <c r="CG38">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CH38">
+        <v>5641.017863366646</v>
+      </c>
+      <c r="CI38">
+        <v>78.86126667025904</v>
+      </c>
+      <c r="CJ38">
+        <v>-0.4</v>
+      </c>
+      <c r="CK38">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="CL38">
+        <v>6723.489602393906</v>
+      </c>
+      <c r="CM38">
+        <v>119.6068128162521</v>
+      </c>
+      <c r="CN38">
+        <v>-0.3</v>
+      </c>
+      <c r="CO38">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="CP38">
+        <v>7786.76176953944</v>
+      </c>
+      <c r="CQ38">
+        <v>177.7917011125408</v>
+      </c>
+      <c r="CR38">
+        <v>-0.2</v>
+      </c>
+      <c r="CS38">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CT38">
+        <v>8828.414704108025</v>
+      </c>
+      <c r="CU38">
+        <v>270.8362590414627</v>
+      </c>
+      <c r="CV38">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="CW38">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="CX38">
+        <v>9845.453477828549</v>
+      </c>
+      <c r="CY38">
+        <v>424.195071559801</v>
+      </c>
+      <c r="CZ38">
+        <v>-0.02500000000000002</v>
+      </c>
+      <c r="DA38">
+        <v>1.951219512195122</v>
+      </c>
+      <c r="DB38">
+        <v>10589.84369759075</v>
+      </c>
+      <c r="DC38">
+        <v>663.8498162905557</v>
+      </c>
+      <c r="DD38">
+        <v>0</v>
+      </c>
+      <c r="DE38">
+        <v>2</v>
+      </c>
+      <c r="DF38">
+        <v>10834.09904202823</v>
+      </c>
+      <c r="DG38">
+        <v>882.3675157772861</v>
+      </c>
     </row>
-    <row r="39" spans="1:63">
+    <row r="39" spans="1:111">
       <c r="A39">
         <v>12.88060000000018</v>
       </c>
@@ -6824,7 +10424,7 @@
         <v>37</v>
       </c>
       <c r="W39" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X39">
         <v>36.38064895879901</v>
@@ -6917,7 +10517,7 @@
         <v>42060.09300255758</v>
       </c>
     </row>
-    <row r="40" spans="1:63">
+    <row r="40" spans="1:111">
       <c r="A40">
         <v>7.030127272727252</v>
       </c>
@@ -6982,7 +10582,7 @@
         <v>38</v>
       </c>
       <c r="W40" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD40">
         <v>535.1214788633231</v>
@@ -7086,8 +10686,152 @@
       <c r="BK40">
         <v>10960.28912431819</v>
       </c>
+      <c r="BL40">
+        <v>-1</v>
+      </c>
+      <c r="BM40">
+        <v>1</v>
+      </c>
+      <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BO40">
+        <v>0</v>
+      </c>
+      <c r="BP40">
+        <v>-0.95</v>
+      </c>
+      <c r="BQ40">
+        <v>1.025641025641026</v>
+      </c>
+      <c r="BR40">
+        <v>803.6388171688748</v>
+      </c>
+      <c r="BS40">
+        <v>1.196455506882199</v>
+      </c>
+      <c r="BT40">
+        <v>-0.8</v>
+      </c>
+      <c r="BU40">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="BV40">
+        <v>3189.991114560432</v>
+      </c>
+      <c r="BW40">
+        <v>11.85249527807904</v>
+      </c>
+      <c r="BX40">
+        <v>-0.7</v>
+      </c>
+      <c r="BY40">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="BZ40">
+        <v>4758.674816694572</v>
+      </c>
+      <c r="CA40">
+        <v>25.89944169714686</v>
+      </c>
+      <c r="CB40">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="CC40">
+        <v>1.25</v>
+      </c>
+      <c r="CD40">
+        <v>6307.689806135769</v>
+      </c>
+      <c r="CE40">
+        <v>49.08791591827244</v>
+      </c>
+      <c r="CF40">
+        <v>-0.5</v>
+      </c>
+      <c r="CG40">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CH40">
+        <v>7835.096998077052</v>
+      </c>
+      <c r="CI40">
+        <v>78.86126667025904</v>
+      </c>
+      <c r="CJ40">
+        <v>-0.4</v>
+      </c>
+      <c r="CK40">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="CL40">
+        <v>9338.597124895296</v>
+      </c>
+      <c r="CM40">
+        <v>119.6068128162521</v>
+      </c>
+      <c r="CN40">
+        <v>-0.3</v>
+      </c>
+      <c r="CO40">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="CP40">
+        <v>10815.42998852478</v>
+      </c>
+      <c r="CQ40">
+        <v>177.7917011125408</v>
+      </c>
+      <c r="CR40">
+        <v>-0.2000000000000001</v>
+      </c>
+      <c r="CS40">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CT40">
+        <v>12262.23479899663</v>
+      </c>
+      <c r="CU40">
+        <v>270.8362590414627</v>
+      </c>
+      <c r="CV40">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="CW40">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="CX40">
+        <v>13674.85174790837</v>
+      </c>
+      <c r="CY40">
+        <v>424.195071559801</v>
+      </c>
+      <c r="CZ40">
+        <v>-0.02500000000000002</v>
+      </c>
+      <c r="DA40">
+        <v>1.951219512195122</v>
+      </c>
+      <c r="DB40">
+        <v>14708.77323469053</v>
+      </c>
+      <c r="DC40">
+        <v>663.8498162905557</v>
+      </c>
+      <c r="DD40">
+        <v>0</v>
+      </c>
+      <c r="DE40">
+        <v>2</v>
+      </c>
+      <c r="DF40">
+        <v>15048.03192209773</v>
+      </c>
+      <c r="DG40">
+        <v>882.3675157772861</v>
+      </c>
     </row>
-    <row r="41" spans="1:63">
+    <row r="41" spans="1:111">
       <c r="A41">
         <v>5.773040000000147</v>
       </c>
@@ -7152,7 +10896,7 @@
         <v>39</v>
       </c>
       <c r="W41" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD41">
         <v>426.357860975794</v>
@@ -7256,8 +11000,152 @@
       <c r="BK41">
         <v>8804.504413306517</v>
       </c>
+      <c r="BL41">
+        <v>-1</v>
+      </c>
+      <c r="BM41">
+        <v>1</v>
+      </c>
+      <c r="BN41">
+        <v>0</v>
+      </c>
+      <c r="BO41">
+        <v>0</v>
+      </c>
+      <c r="BP41">
+        <v>-0.95</v>
+      </c>
+      <c r="BQ41">
+        <v>1.025641025641026</v>
+      </c>
+      <c r="BR41">
+        <v>645.5706991130985</v>
+      </c>
+      <c r="BS41">
+        <v>1.196455506882199</v>
+      </c>
+      <c r="BT41">
+        <v>-0.8</v>
+      </c>
+      <c r="BU41">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="BV41">
+        <v>2562.550178009384</v>
+      </c>
+      <c r="BW41">
+        <v>11.85249527807904</v>
+      </c>
+      <c r="BX41">
+        <v>-0.7</v>
+      </c>
+      <c r="BY41">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="BZ41">
+        <v>3822.688703723795</v>
+      </c>
+      <c r="CA41">
+        <v>25.89944169714686</v>
+      </c>
+      <c r="CB41">
+        <v>-0.6</v>
+      </c>
+      <c r="CC41">
+        <v>1.25</v>
+      </c>
+      <c r="CD41">
+        <v>5067.027165612808</v>
+      </c>
+      <c r="CE41">
+        <v>49.08791591827244</v>
+      </c>
+      <c r="CF41">
+        <v>-0.5</v>
+      </c>
+      <c r="CG41">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CH41">
+        <v>6294.007878423128</v>
+      </c>
+      <c r="CI41">
+        <v>78.86126667025904</v>
+      </c>
+      <c r="CJ41">
+        <v>-0.4</v>
+      </c>
+      <c r="CK41">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="CL41">
+        <v>7501.783818622296</v>
+      </c>
+      <c r="CM41">
+        <v>119.6068128162521</v>
+      </c>
+      <c r="CN41">
+        <v>-0.3</v>
+      </c>
+      <c r="CO41">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="CP41">
+        <v>8688.137692872924</v>
+      </c>
+      <c r="CQ41">
+        <v>177.7917011125408</v>
+      </c>
+      <c r="CR41">
+        <v>-0.2</v>
+      </c>
+      <c r="CS41">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CT41">
+        <v>9850.36974665416</v>
+      </c>
+      <c r="CU41">
+        <v>270.8362590414627</v>
+      </c>
+      <c r="CV41">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="CW41">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="CX41">
+        <v>10985.13836634408</v>
+      </c>
+      <c r="CY41">
+        <v>424.195071559801</v>
+      </c>
+      <c r="CZ41">
+        <v>-0.02499999999999991</v>
+      </c>
+      <c r="DA41">
+        <v>1.951219512195122</v>
+      </c>
+      <c r="DB41">
+        <v>11815.69732242018</v>
+      </c>
+      <c r="DC41">
+        <v>663.8498162905557</v>
+      </c>
+      <c r="DD41">
+        <v>0</v>
+      </c>
+      <c r="DE41">
+        <v>2</v>
+      </c>
+      <c r="DF41">
+        <v>12088.22705011704</v>
+      </c>
+      <c r="DG41">
+        <v>882.3675157772861</v>
+      </c>
     </row>
-    <row r="42" spans="1:63">
+    <row r="42" spans="1:111">
       <c r="A42">
         <v>3.617309090909096</v>
       </c>
@@ -7322,7 +11210,7 @@
         <v>40</v>
       </c>
       <c r="W42" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD42">
         <v>259.1018888585251</v>
@@ -7426,8 +11314,152 @@
       <c r="BK42">
         <v>5454.428557396287</v>
       </c>
+      <c r="BL42">
+        <v>-1</v>
+      </c>
+      <c r="BM42">
+        <v>1</v>
+      </c>
+      <c r="BN42">
+        <v>0</v>
+      </c>
+      <c r="BO42">
+        <v>0</v>
+      </c>
+      <c r="BP42">
+        <v>-0.95</v>
+      </c>
+      <c r="BQ42">
+        <v>1.025641025641026</v>
+      </c>
+      <c r="BR42">
+        <v>399.9338397444658</v>
+      </c>
+      <c r="BS42">
+        <v>1.011082492492456</v>
+      </c>
+      <c r="BT42">
+        <v>-0.8</v>
+      </c>
+      <c r="BU42">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="BV42">
+        <v>1587.510916522579</v>
+      </c>
+      <c r="BW42">
+        <v>10.01612713475949</v>
+      </c>
+      <c r="BX42">
+        <v>-0.7</v>
+      </c>
+      <c r="BY42">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="BZ42">
+        <v>2368.172182424617</v>
+      </c>
+      <c r="CA42">
+        <v>20.42753182655397</v>
+      </c>
+      <c r="CB42">
+        <v>-0.6</v>
+      </c>
+      <c r="CC42">
+        <v>1.25</v>
+      </c>
+      <c r="CD42">
+        <v>3139.045240462542</v>
+      </c>
+      <c r="CE42">
+        <v>38.22299641044491</v>
+      </c>
+      <c r="CF42">
+        <v>-0.5</v>
+      </c>
+      <c r="CG42">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CH42">
+        <v>3899.165097886035</v>
+      </c>
+      <c r="CI42">
+        <v>60.89305748761863</v>
+      </c>
+      <c r="CJ42">
+        <v>-0.4</v>
+      </c>
+      <c r="CK42">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="CL42">
+        <v>4647.387515629645</v>
+      </c>
+      <c r="CM42">
+        <v>91.09712115326865</v>
+      </c>
+      <c r="CN42">
+        <v>-0.3</v>
+      </c>
+      <c r="CO42">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="CP42">
+        <v>5382.338870882612</v>
+      </c>
+      <c r="CQ42">
+        <v>137.1787374878971</v>
+      </c>
+      <c r="CR42">
+        <v>-0.2</v>
+      </c>
+      <c r="CS42">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CT42">
+        <v>6102.346654044707</v>
+      </c>
+      <c r="CU42">
+        <v>207.8931740845635</v>
+      </c>
+      <c r="CV42">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="CW42">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="CX42">
+        <v>6805.340721026998</v>
+      </c>
+      <c r="CY42">
+        <v>337.7177986878663</v>
+      </c>
+      <c r="CZ42">
+        <v>-0.02499999999999991</v>
+      </c>
+      <c r="DA42">
+        <v>1.951219512195122</v>
+      </c>
+      <c r="DB42">
+        <v>7319.875585905488</v>
+      </c>
+      <c r="DC42">
+        <v>543.8538663255703</v>
+      </c>
+      <c r="DD42">
+        <v>0</v>
+      </c>
+      <c r="DE42">
+        <v>2</v>
+      </c>
+      <c r="DF42">
+        <v>7488.708930715058</v>
+      </c>
+      <c r="DG42">
+        <v>711.4803356247838</v>
+      </c>
     </row>
-    <row r="43" spans="1:63">
+    <row r="43" spans="1:111">
       <c r="A43">
         <v>7.14838000000017</v>
       </c>
@@ -7495,7 +11527,7 @@
         <v>41</v>
       </c>
       <c r="W43" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X43">
         <v>32.73363113556535</v>
@@ -7588,7 +11620,7 @@
         <v>27998.41974252583</v>
       </c>
     </row>
-    <row r="44" spans="1:63">
+    <row r="44" spans="1:111">
       <c r="A44">
         <v>7.415709090909082</v>
       </c>
@@ -7653,7 +11685,7 @@
         <v>42</v>
       </c>
       <c r="W44" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD44">
         <v>565.5183265342305</v>
@@ -7757,8 +11789,152 @@
       <c r="BK44">
         <v>11610.61533144108</v>
       </c>
+      <c r="BL44">
+        <v>-1</v>
+      </c>
+      <c r="BM44">
+        <v>1</v>
+      </c>
+      <c r="BN44">
+        <v>0</v>
+      </c>
+      <c r="BO44">
+        <v>0</v>
+      </c>
+      <c r="BP44">
+        <v>-0.95</v>
+      </c>
+      <c r="BQ44">
+        <v>1.025641025641026</v>
+      </c>
+      <c r="BR44">
+        <v>851.322539554133</v>
+      </c>
+      <c r="BS44">
+        <v>1.196455506882199</v>
+      </c>
+      <c r="BT44">
+        <v>-0.8</v>
+      </c>
+      <c r="BU44">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="BV44">
+        <v>3379.268495727768</v>
+      </c>
+      <c r="BW44">
+        <v>11.85249527807904</v>
+      </c>
+      <c r="BX44">
+        <v>-0.7</v>
+      </c>
+      <c r="BY44">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="BZ44">
+        <v>5041.029680637512</v>
+      </c>
+      <c r="CA44">
+        <v>25.89944169714686</v>
+      </c>
+      <c r="CB44">
+        <v>-0.6</v>
+      </c>
+      <c r="CC44">
+        <v>1.25</v>
+      </c>
+      <c r="CD44">
+        <v>6681.955114359298</v>
+      </c>
+      <c r="CE44">
+        <v>49.08791591827244</v>
+      </c>
+      <c r="CF44">
+        <v>-0.5</v>
+      </c>
+      <c r="CG44">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CH44">
+        <v>8299.990656939934</v>
+      </c>
+      <c r="CI44">
+        <v>78.86126667025904</v>
+      </c>
+      <c r="CJ44">
+        <v>-0.4</v>
+      </c>
+      <c r="CK44">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="CL44">
+        <v>9892.700614246412</v>
+      </c>
+      <c r="CM44">
+        <v>119.6068128162521</v>
+      </c>
+      <c r="CN44">
+        <v>-0.3</v>
+      </c>
+      <c r="CO44">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="CP44">
+        <v>11457.16101250249</v>
+      </c>
+      <c r="CQ44">
+        <v>177.7917011125408</v>
+      </c>
+      <c r="CR44">
+        <v>-0.2</v>
+      </c>
+      <c r="CS44">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CT44">
+        <v>12989.81165004779</v>
+      </c>
+      <c r="CU44">
+        <v>270.8362590414627</v>
+      </c>
+      <c r="CV44">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="CW44">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="CX44">
+        <v>14486.24589721537</v>
+      </c>
+      <c r="CY44">
+        <v>424.195071559801</v>
+      </c>
+      <c r="CZ44">
+        <v>-0.02500000000000002</v>
+      </c>
+      <c r="DA44">
+        <v>1.951219512195122</v>
+      </c>
+      <c r="DB44">
+        <v>15581.51487504775</v>
+      </c>
+      <c r="DC44">
+        <v>663.8498162905557</v>
+      </c>
+      <c r="DD44">
+        <v>0</v>
+      </c>
+      <c r="DE44">
+        <v>2</v>
+      </c>
+      <c r="DF44">
+        <v>15940.90339780076</v>
+      </c>
+      <c r="DG44">
+        <v>882.3675157772861</v>
+      </c>
     </row>
-    <row r="45" spans="1:63">
+    <row r="45" spans="1:111">
       <c r="A45">
         <v>9.661809999999848</v>
       </c>
@@ -7826,7 +12002,7 @@
         <v>43</v>
       </c>
       <c r="W45" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X45">
         <v>33.87934642209807</v>
@@ -7919,7 +12095,7 @@
         <v>35567.36008410862</v>
       </c>
     </row>
-    <row r="46" spans="1:63">
+    <row r="46" spans="1:111">
       <c r="A46">
         <v>8.728149999999996</v>
       </c>
@@ -7984,7 +12160,7 @@
         <v>44</v>
       </c>
       <c r="W46" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD46">
         <v>666.7018070637357</v>
@@ -8088,8 +12264,152 @@
       <c r="BK46">
         <v>13646.8793416526</v>
       </c>
+      <c r="BL46">
+        <v>-1</v>
+      </c>
+      <c r="BM46">
+        <v>1</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <v>-0.95</v>
+      </c>
+      <c r="BQ46">
+        <v>1.025641025641026</v>
+      </c>
+      <c r="BR46">
+        <v>1000.627068116169</v>
+      </c>
+      <c r="BS46">
+        <v>1.196455506882199</v>
+      </c>
+      <c r="BT46">
+        <v>-0.8</v>
+      </c>
+      <c r="BU46">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="BV46">
+        <v>3971.922943598279</v>
+      </c>
+      <c r="BW46">
+        <v>11.85249527807904</v>
+      </c>
+      <c r="BX46">
+        <v>-0.7</v>
+      </c>
+      <c r="BY46">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="BZ46">
+        <v>5925.12298836199</v>
+      </c>
+      <c r="CA46">
+        <v>25.89944169714686</v>
+      </c>
+      <c r="CB46">
+        <v>-0.6</v>
+      </c>
+      <c r="CC46">
+        <v>1.25</v>
+      </c>
+      <c r="CD46">
+        <v>7853.83311813517</v>
+      </c>
+      <c r="CE46">
+        <v>49.08791591827244</v>
+      </c>
+      <c r="CF46">
+        <v>-0.5</v>
+      </c>
+      <c r="CG46">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CH46">
+        <v>9755.638938909242</v>
+      </c>
+      <c r="CI46">
+        <v>78.86126667025904</v>
+      </c>
+      <c r="CJ46">
+        <v>-0.4</v>
+      </c>
+      <c r="CK46">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="CL46">
+        <v>11627.6775857113</v>
+      </c>
+      <c r="CM46">
+        <v>119.6068128162521</v>
+      </c>
+      <c r="CN46">
+        <v>-0.3</v>
+      </c>
+      <c r="CO46">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="CP46">
+        <v>13466.51227968135</v>
+      </c>
+      <c r="CQ46">
+        <v>177.7917011125408</v>
+      </c>
+      <c r="CR46">
+        <v>-0.2</v>
+      </c>
+      <c r="CS46">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CT46">
+        <v>15267.95843274167</v>
+      </c>
+      <c r="CU46">
+        <v>270.8362590414627</v>
+      </c>
+      <c r="CV46">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="CW46">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="CX46">
+        <v>17026.83658268018</v>
+      </c>
+      <c r="CY46">
+        <v>424.195071559801</v>
+      </c>
+      <c r="CZ46">
+        <v>-0.02500000000000002</v>
+      </c>
+      <c r="DA46">
+        <v>1.951219512195122</v>
+      </c>
+      <c r="DB46">
+        <v>18314.19329552017</v>
+      </c>
+      <c r="DC46">
+        <v>663.8498162905557</v>
+      </c>
+      <c r="DD46">
+        <v>0</v>
+      </c>
+      <c r="DE46">
+        <v>2</v>
+      </c>
+      <c r="DF46">
+        <v>18736.61120075417</v>
+      </c>
+      <c r="DG46">
+        <v>882.3675157772861</v>
+      </c>
     </row>
-    <row r="47" spans="1:63">
+    <row r="47" spans="1:111">
       <c r="A47">
         <v>6.938833333333394</v>
       </c>
@@ -8154,7 +12474,7 @@
         <v>45</v>
       </c>
       <c r="W47" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD47">
         <v>518.2371433826152</v>
@@ -8258,8 +12578,152 @@
       <c r="BK47">
         <v>10701.82821113221</v>
       </c>
+      <c r="BL47">
+        <v>-1</v>
+      </c>
+      <c r="BM47">
+        <v>1</v>
+      </c>
+      <c r="BN47">
+        <v>0</v>
+      </c>
+      <c r="BO47">
+        <v>0</v>
+      </c>
+      <c r="BP47">
+        <v>-0.95</v>
+      </c>
+      <c r="BQ47">
+        <v>1.025641025641026</v>
+      </c>
+      <c r="BR47">
+        <v>784.6877456961055</v>
+      </c>
+      <c r="BS47">
+        <v>1.196455506882199</v>
+      </c>
+      <c r="BT47">
+        <v>-0.8</v>
+      </c>
+      <c r="BU47">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="BV47">
+        <v>3114.766090186292</v>
+      </c>
+      <c r="BW47">
+        <v>11.85249527807904</v>
+      </c>
+      <c r="BX47">
+        <v>-0.7</v>
+      </c>
+      <c r="BY47">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="BZ47">
+        <v>4646.45775519853</v>
+      </c>
+      <c r="CA47">
+        <v>25.89944169714686</v>
+      </c>
+      <c r="CB47">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="CC47">
+        <v>1.25</v>
+      </c>
+      <c r="CD47">
+        <v>6158.944526800889</v>
+      </c>
+      <c r="CE47">
+        <v>49.08791591827244</v>
+      </c>
+      <c r="CF47">
+        <v>-0.5</v>
+      </c>
+      <c r="CG47">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CH47">
+        <v>7650.333046866075</v>
+      </c>
+      <c r="CI47">
+        <v>78.86126667025904</v>
+      </c>
+      <c r="CJ47">
+        <v>-0.4</v>
+      </c>
+      <c r="CK47">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="CL47">
+        <v>9118.37826812982</v>
+      </c>
+      <c r="CM47">
+        <v>119.6068128162521</v>
+      </c>
+      <c r="CN47">
+        <v>-0.3</v>
+      </c>
+      <c r="CO47">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="CP47">
+        <v>10560.38508235247</v>
+      </c>
+      <c r="CQ47">
+        <v>177.7917011125408</v>
+      </c>
+      <c r="CR47">
+        <v>-0.2000000000000001</v>
+      </c>
+      <c r="CS47">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CT47">
+        <v>11973.07195229602</v>
+      </c>
+      <c r="CU47">
+        <v>270.8362590414627</v>
+      </c>
+      <c r="CV47">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="CW47">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="CX47">
+        <v>13352.37716440443</v>
+      </c>
+      <c r="CY47">
+        <v>424.195071559801</v>
+      </c>
+      <c r="CZ47">
+        <v>-0.02500000000000002</v>
+      </c>
+      <c r="DA47">
+        <v>1.951219512195122</v>
+      </c>
+      <c r="DB47">
+        <v>14361.91715097202</v>
+      </c>
+      <c r="DC47">
+        <v>663.8498162905557</v>
+      </c>
+      <c r="DD47">
+        <v>0</v>
+      </c>
+      <c r="DE47">
+        <v>2</v>
+      </c>
+      <c r="DF47">
+        <v>14693.17558317071</v>
+      </c>
+      <c r="DG47">
+        <v>882.3675157772861</v>
+      </c>
     </row>
-    <row r="48" spans="1:63">
+    <row r="48" spans="1:111">
       <c r="A48">
         <v>11.3296333333332</v>
       </c>
@@ -8327,7 +12791,7 @@
         <v>46</v>
       </c>
       <c r="W48" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X48">
         <v>34.23414106787165</v>
@@ -8420,7 +12884,7 @@
         <v>40862.78359814134</v>
       </c>
     </row>
-    <row r="49" spans="1:63">
+    <row r="49" spans="1:111">
       <c r="A49">
         <v>4.162066666666681</v>
       </c>
@@ -8485,7 +12949,7 @@
         <v>47</v>
       </c>
       <c r="W49" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD49">
         <v>285.9316517902387</v>
@@ -8589,8 +13053,152 @@
       <c r="BK49">
         <v>6075.448720584727</v>
       </c>
+      <c r="BL49">
+        <v>-1</v>
+      </c>
+      <c r="BM49">
+        <v>1</v>
+      </c>
+      <c r="BN49">
+        <v>0</v>
+      </c>
+      <c r="BO49">
+        <v>0</v>
+      </c>
+      <c r="BP49">
+        <v>-0.95</v>
+      </c>
+      <c r="BQ49">
+        <v>1.025641025641026</v>
+      </c>
+      <c r="BR49">
+        <v>445.4687616540943</v>
+      </c>
+      <c r="BS49">
+        <v>0.9802309636112482</v>
+      </c>
+      <c r="BT49">
+        <v>-0.8</v>
+      </c>
+      <c r="BU49">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="BV49">
+        <v>1768.258776370412</v>
+      </c>
+      <c r="BW49">
+        <v>9.710501394159316</v>
+      </c>
+      <c r="BX49">
+        <v>-0.7</v>
+      </c>
+      <c r="BY49">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="BZ49">
+        <v>2637.803118041767</v>
+      </c>
+      <c r="CA49">
+        <v>19.51684487482202</v>
+      </c>
+      <c r="CB49">
+        <v>-0.6</v>
+      </c>
+      <c r="CC49">
+        <v>1.25</v>
+      </c>
+      <c r="CD49">
+        <v>3496.444804316855</v>
+      </c>
+      <c r="CE49">
+        <v>36.41475382944559</v>
+      </c>
+      <c r="CF49">
+        <v>-0.5</v>
+      </c>
+      <c r="CG49">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CH49">
+        <v>4343.108972098911</v>
+      </c>
+      <c r="CI49">
+        <v>57.90261831087686</v>
+      </c>
+      <c r="CJ49">
+        <v>-0.4</v>
+      </c>
+      <c r="CK49">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="CL49">
+        <v>5176.521103683085</v>
+      </c>
+      <c r="CM49">
+        <v>86.35226884221129</v>
+      </c>
+      <c r="CN49">
+        <v>-0.3</v>
+      </c>
+      <c r="CO49">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="CP49">
+        <v>5995.151180872166</v>
+      </c>
+      <c r="CQ49">
+        <v>130.419544277699</v>
+      </c>
+      <c r="CR49">
+        <v>-0.2</v>
+      </c>
+      <c r="CS49">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CT49">
+        <v>6797.13626858433</v>
+      </c>
+      <c r="CU49">
+        <v>197.4175910564035</v>
+      </c>
+      <c r="CV49">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="CW49">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="CX49">
+        <v>7580.170524122367</v>
+      </c>
+      <c r="CY49">
+        <v>323.3254337022746</v>
+      </c>
+      <c r="CZ49">
+        <v>-0.02499999999999991</v>
+      </c>
+      <c r="DA49">
+        <v>1.951219512195122</v>
+      </c>
+      <c r="DB49">
+        <v>8153.288340888583</v>
+      </c>
+      <c r="DC49">
+        <v>523.883006337346</v>
+      </c>
+      <c r="DD49">
+        <v>0</v>
+      </c>
+      <c r="DE49">
+        <v>2</v>
+      </c>
+      <c r="DF49">
+        <v>8341.344398076173</v>
+      </c>
+      <c r="DG49">
+        <v>683.0396761724946</v>
+      </c>
     </row>
-    <row r="50" spans="1:63">
+    <row r="50" spans="1:111">
       <c r="A50">
         <v>7.706399999999975</v>
       </c>
@@ -8655,7 +13263,7 @@
         <v>48</v>
       </c>
       <c r="W50" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD50">
         <v>579.1652094076707</v>
@@ -8759,8 +13367,152 @@
       <c r="BK50">
         <v>11951.12533169286</v>
       </c>
+      <c r="BL50">
+        <v>-1</v>
+      </c>
+      <c r="BM50">
+        <v>1</v>
+      </c>
+      <c r="BN50">
+        <v>0</v>
+      </c>
+      <c r="BO50">
+        <v>0</v>
+      </c>
+      <c r="BP50">
+        <v>-0.95</v>
+      </c>
+      <c r="BQ50">
+        <v>1.025641025641026</v>
+      </c>
+      <c r="BR50">
+        <v>876.2896778050172</v>
+      </c>
+      <c r="BS50">
+        <v>1.196455506882199</v>
+      </c>
+      <c r="BT50">
+        <v>-0.8</v>
+      </c>
+      <c r="BU50">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="BV50">
+        <v>3478.373899143823</v>
+      </c>
+      <c r="BW50">
+        <v>11.85249527807904</v>
+      </c>
+      <c r="BX50">
+        <v>-0.7</v>
+      </c>
+      <c r="BY50">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="BZ50">
+        <v>5188.870339278131</v>
+      </c>
+      <c r="CA50">
+        <v>25.89944169714686</v>
+      </c>
+      <c r="CB50">
+        <v>-0.6</v>
+      </c>
+      <c r="CC50">
+        <v>1.25</v>
+      </c>
+      <c r="CD50">
+        <v>6877.919968307351</v>
+      </c>
+      <c r="CE50">
+        <v>49.08791591827244</v>
+      </c>
+      <c r="CF50">
+        <v>-0.5</v>
+      </c>
+      <c r="CG50">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CH50">
+        <v>8543.408403545583</v>
+      </c>
+      <c r="CI50">
+        <v>78.86126667025904</v>
+      </c>
+      <c r="CJ50">
+        <v>-0.4</v>
+      </c>
+      <c r="CK50">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="CL50">
+        <v>10182.82851810745</v>
+      </c>
+      <c r="CM50">
+        <v>119.6068128162521</v>
+      </c>
+      <c r="CN50">
+        <v>-0.3000000000000002</v>
+      </c>
+      <c r="CO50">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="CP50">
+        <v>11793.17058545659</v>
+      </c>
+      <c r="CQ50">
+        <v>177.7917011125408</v>
+      </c>
+      <c r="CR50">
+        <v>-0.2</v>
+      </c>
+      <c r="CS50">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CT50">
+        <v>13370.76999221684</v>
+      </c>
+      <c r="CU50">
+        <v>270.8362590414627</v>
+      </c>
+      <c r="CV50">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="CW50">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="CX50">
+        <v>14911.09087341147</v>
+      </c>
+      <c r="CY50">
+        <v>424.195071559801</v>
+      </c>
+      <c r="CZ50">
+        <v>-0.02500000000000002</v>
+      </c>
+      <c r="DA50">
+        <v>1.951219512195122</v>
+      </c>
+      <c r="DB50">
+        <v>16038.48132192142</v>
+      </c>
+      <c r="DC50">
+        <v>663.8498162905557</v>
+      </c>
+      <c r="DD50">
+        <v>0</v>
+      </c>
+      <c r="DE50">
+        <v>2</v>
+      </c>
+      <c r="DF50">
+        <v>16408.4098016431</v>
+      </c>
+      <c r="DG50">
+        <v>882.3675157772861</v>
+      </c>
     </row>
-    <row r="51" spans="1:63">
+    <row r="51" spans="1:111">
       <c r="A51">
         <v>4.802966666666633</v>
       </c>
@@ -8825,7 +13577,7 @@
         <v>49</v>
       </c>
       <c r="W51" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD51">
         <v>337.7165855316043</v>
@@ -8929,8 +13681,152 @@
       <c r="BK51">
         <v>7116.851276664083</v>
       </c>
+      <c r="BL51">
+        <v>-1</v>
+      </c>
+      <c r="BM51">
+        <v>1</v>
+      </c>
+      <c r="BN51">
+        <v>0</v>
+      </c>
+      <c r="BO51">
+        <v>0</v>
+      </c>
+      <c r="BP51">
+        <v>-0.95</v>
+      </c>
+      <c r="BQ51">
+        <v>1.025641025641026</v>
+      </c>
+      <c r="BR51">
+        <v>521.8272873162828</v>
+      </c>
+      <c r="BS51">
+        <v>1.007257164561179</v>
+      </c>
+      <c r="BT51">
+        <v>-0.8</v>
+      </c>
+      <c r="BU51">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="BV51">
+        <v>2071.358891968898</v>
+      </c>
+      <c r="BW51">
+        <v>9.978232134918919</v>
+      </c>
+      <c r="BX51">
+        <v>-0.7</v>
+      </c>
+      <c r="BY51">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="BZ51">
+        <v>3089.953244871971</v>
+      </c>
+      <c r="CA51">
+        <v>20.31461436802145</v>
+      </c>
+      <c r="CB51">
+        <v>-0.6</v>
+      </c>
+      <c r="CC51">
+        <v>1.25</v>
+      </c>
+      <c r="CD51">
+        <v>4095.776100467687</v>
+      </c>
+      <c r="CE51">
+        <v>37.9987896659995</v>
+      </c>
+      <c r="CF51">
+        <v>-0.5</v>
+      </c>
+      <c r="CG51">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CH51">
+        <v>5087.568351625973</v>
+      </c>
+      <c r="CI51">
+        <v>60.52226839144064</v>
+      </c>
+      <c r="CJ51">
+        <v>-0.4</v>
+      </c>
+      <c r="CK51">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="CL51">
+        <v>6063.837013487268</v>
+      </c>
+      <c r="CM51">
+        <v>90.50879970750965</v>
+      </c>
+      <c r="CN51">
+        <v>-0.3</v>
+      </c>
+      <c r="CO51">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="CP51">
+        <v>7022.789804944291</v>
+      </c>
+      <c r="CQ51">
+        <v>136.3406548541508</v>
+      </c>
+      <c r="CR51">
+        <v>-0.2</v>
+      </c>
+      <c r="CS51">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CT51">
+        <v>7962.24446217997</v>
+      </c>
+      <c r="CU51">
+        <v>206.5942906318724</v>
+      </c>
+      <c r="CV51">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="CW51">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="CX51">
+        <v>8879.499894246434</v>
+      </c>
+      <c r="CY51">
+        <v>335.9332674904501</v>
+      </c>
+      <c r="CZ51">
+        <v>-0.02500000000000002</v>
+      </c>
+      <c r="DA51">
+        <v>1.951219512195122</v>
+      </c>
+      <c r="DB51">
+        <v>9550.856769025391</v>
+      </c>
+      <c r="DC51">
+        <v>541.3776490587142</v>
+      </c>
+      <c r="DD51">
+        <v>0</v>
+      </c>
+      <c r="DE51">
+        <v>2</v>
+      </c>
+      <c r="DF51">
+        <v>9771.147821132421</v>
+      </c>
+      <c r="DG51">
+        <v>707.9539350562525</v>
+      </c>
     </row>
-    <row r="52" spans="1:63">
+    <row r="52" spans="1:111">
       <c r="A52">
         <v>3.172609090909082</v>
       </c>
@@ -8995,7 +13891,7 @@
         <v>50</v>
       </c>
       <c r="W52" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD52">
         <v>207.5255270751433</v>
@@ -9099,8 +13995,152 @@
       <c r="BK52">
         <v>4559.663380462978</v>
       </c>
+      <c r="BL52">
+        <v>-1</v>
+      </c>
+      <c r="BM52">
+        <v>1</v>
+      </c>
+      <c r="BN52">
+        <v>0</v>
+      </c>
+      <c r="BO52">
+        <v>0</v>
+      </c>
+      <c r="BP52">
+        <v>-0.95</v>
+      </c>
+      <c r="BQ52">
+        <v>1.025641025641026</v>
+      </c>
+      <c r="BR52">
+        <v>334.327173690452</v>
+      </c>
+      <c r="BS52">
+        <v>0.8098728218660914</v>
+      </c>
+      <c r="BT52">
+        <v>-0.8</v>
+      </c>
+      <c r="BU52">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="BV52">
+        <v>1327.089596276348</v>
+      </c>
+      <c r="BW52">
+        <v>8.022875687225614</v>
+      </c>
+      <c r="BX52">
+        <v>-0.7</v>
+      </c>
+      <c r="BY52">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="BZ52">
+        <v>1979.688223102725</v>
+      </c>
+      <c r="CA52">
+        <v>14.92293042013543</v>
+      </c>
+      <c r="CB52">
+        <v>-0.6</v>
+      </c>
+      <c r="CC52">
+        <v>1.25</v>
+      </c>
+      <c r="CD52">
+        <v>2624.104336859455</v>
+      </c>
+      <c r="CE52">
+        <v>26.42987278482572</v>
+      </c>
+      <c r="CF52">
+        <v>-0.5</v>
+      </c>
+      <c r="CG52">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CH52">
+        <v>3259.531245872103</v>
+      </c>
+      <c r="CI52">
+        <v>41.38980096839621</v>
+      </c>
+      <c r="CJ52">
+        <v>-0.4</v>
+      </c>
+      <c r="CK52">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="CL52">
+        <v>3885.012416397432</v>
+      </c>
+      <c r="CM52">
+        <v>62.98342303998228</v>
+      </c>
+      <c r="CN52">
+        <v>-0.3</v>
+      </c>
+      <c r="CO52">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="CP52">
+        <v>4499.399559927694</v>
+      </c>
+      <c r="CQ52">
+        <v>93.09615588357499</v>
+      </c>
+      <c r="CR52">
+        <v>-0.2</v>
+      </c>
+      <c r="CS52">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CT52">
+        <v>5101.294531689813</v>
+      </c>
+      <c r="CU52">
+        <v>142.3512578687607</v>
+      </c>
+      <c r="CV52">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="CW52">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="CX52">
+        <v>5688.966781893786</v>
+      </c>
+      <c r="CY52">
+        <v>232.8587199786886</v>
+      </c>
+      <c r="CZ52">
+        <v>-0.02500000000000002</v>
+      </c>
+      <c r="DA52">
+        <v>1.951219512195122</v>
+      </c>
+      <c r="DB52">
+        <v>6119.095393290953</v>
+      </c>
+      <c r="DC52">
+        <v>399.9857903060371</v>
+      </c>
+      <c r="DD52">
+        <v>0</v>
+      </c>
+      <c r="DE52">
+        <v>2</v>
+      </c>
+      <c r="DF52">
+        <v>6260.23267497473</v>
+      </c>
+      <c r="DG52">
+        <v>593.8848398061133</v>
+      </c>
     </row>
-    <row r="53" spans="1:63">
+    <row r="53" spans="1:111">
       <c r="A53">
         <v>4.551036363636355</v>
       </c>
@@ -9165,7 +14205,7 @@
         <v>51</v>
       </c>
       <c r="W53" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD53">
         <v>321.0434083664163</v>
@@ -9269,8 +14309,152 @@
       <c r="BK53">
         <v>6816.891719948417</v>
       </c>
+      <c r="BL53">
+        <v>-1</v>
+      </c>
+      <c r="BM53">
+        <v>1</v>
+      </c>
+      <c r="BN53">
+        <v>0</v>
+      </c>
+      <c r="BO53">
+        <v>0</v>
+      </c>
+      <c r="BP53">
+        <v>-0.95</v>
+      </c>
+      <c r="BQ53">
+        <v>1.025641025641026</v>
+      </c>
+      <c r="BR53">
+        <v>499.8334201269012</v>
+      </c>
+      <c r="BS53">
+        <v>0.9822638401224489</v>
+      </c>
+      <c r="BT53">
+        <v>-0.8</v>
+      </c>
+      <c r="BU53">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="BV53">
+        <v>1984.055691314509</v>
+      </c>
+      <c r="BW53">
+        <v>9.730639760451526</v>
+      </c>
+      <c r="BX53">
+        <v>-0.7</v>
+      </c>
+      <c r="BY53">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="BZ53">
+        <v>2959.718542814465</v>
+      </c>
+      <c r="CA53">
+        <v>19.57685208290436</v>
+      </c>
+      <c r="CB53">
+        <v>-0.6</v>
+      </c>
+      <c r="CC53">
+        <v>1.25</v>
+      </c>
+      <c r="CD53">
+        <v>3923.1481874001</v>
+      </c>
+      <c r="CE53">
+        <v>36.53390299328835</v>
+      </c>
+      <c r="CF53">
+        <v>-0.5</v>
+      </c>
+      <c r="CG53">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CH53">
+        <v>4873.138586524896</v>
+      </c>
+      <c r="CI53">
+        <v>58.09966506288649</v>
+      </c>
+      <c r="CJ53">
+        <v>-0.4</v>
+      </c>
+      <c r="CK53">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="CL53">
+        <v>5808.259681342387</v>
+      </c>
+      <c r="CM53">
+        <v>86.66491781495445</v>
+      </c>
+      <c r="CN53">
+        <v>-0.3</v>
+      </c>
+      <c r="CO53">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="CP53">
+        <v>6726.794731433944</v>
+      </c>
+      <c r="CQ53">
+        <v>130.864922695235</v>
+      </c>
+      <c r="CR53">
+        <v>-0.2</v>
+      </c>
+      <c r="CS53">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CT53">
+        <v>7626.653450580698</v>
+      </c>
+      <c r="CU53">
+        <v>198.1078507437298</v>
+      </c>
+      <c r="CV53">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="CW53">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="CX53">
+        <v>8505.248592850203</v>
+      </c>
+      <c r="CY53">
+        <v>324.2737789474161</v>
+      </c>
+      <c r="CZ53">
+        <v>-0.02500000000000002</v>
+      </c>
+      <c r="DA53">
+        <v>1.951219512195122</v>
+      </c>
+      <c r="DB53">
+        <v>9148.309258712017</v>
+      </c>
+      <c r="DC53">
+        <v>525.1989311440182</v>
+      </c>
+      <c r="DD53">
+        <v>0</v>
+      </c>
+      <c r="DE53">
+        <v>2</v>
+      </c>
+      <c r="DF53">
+        <v>9359.315529703117</v>
+      </c>
+      <c r="DG53">
+        <v>684.9136950837207</v>
+      </c>
     </row>
-    <row r="54" spans="1:63">
+    <row r="54" spans="1:111">
       <c r="A54">
         <v>3.7082</v>
       </c>
@@ -9335,7 +14519,7 @@
         <v>52</v>
       </c>
       <c r="W54" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD54">
         <v>255.1194550094439</v>
@@ -9439,8 +14623,152 @@
       <c r="BK54">
         <v>5528.731518537279</v>
       </c>
+      <c r="BL54">
+        <v>-1</v>
+      </c>
+      <c r="BM54">
+        <v>1</v>
+      </c>
+      <c r="BN54">
+        <v>0</v>
+      </c>
+      <c r="BO54">
+        <v>0</v>
+      </c>
+      <c r="BP54">
+        <v>-0.95</v>
+      </c>
+      <c r="BQ54">
+        <v>1.025641025641026</v>
+      </c>
+      <c r="BR54">
+        <v>405.3819390716089</v>
+      </c>
+      <c r="BS54">
+        <v>0.8818666406006177</v>
+      </c>
+      <c r="BT54">
+        <v>-0.8</v>
+      </c>
+      <c r="BU54">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="BV54">
+        <v>1609.136786345611</v>
+      </c>
+      <c r="BW54">
+        <v>8.736070947470147</v>
+      </c>
+      <c r="BX54">
+        <v>-0.7</v>
+      </c>
+      <c r="BY54">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="BZ54">
+        <v>2400.432611504262</v>
+      </c>
+      <c r="CA54">
+        <v>16.83555680638053</v>
+      </c>
+      <c r="CB54">
+        <v>-0.6</v>
+      </c>
+      <c r="CC54">
+        <v>1.25</v>
+      </c>
+      <c r="CD54">
+        <v>3181.806888922604</v>
+      </c>
+      <c r="CE54">
+        <v>30.64951094622054</v>
+      </c>
+      <c r="CF54">
+        <v>-0.5</v>
+      </c>
+      <c r="CG54">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CH54">
+        <v>3952.28148023514</v>
+      </c>
+      <c r="CI54">
+        <v>48.36816294377678</v>
+      </c>
+      <c r="CJ54">
+        <v>-0.4</v>
+      </c>
+      <c r="CK54">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="CL54">
+        <v>4710.696558978048</v>
+      </c>
+      <c r="CM54">
+        <v>72.67176081101208</v>
+      </c>
+      <c r="CN54">
+        <v>-0.3</v>
+      </c>
+      <c r="CO54">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="CP54">
+        <v>5455.65979016178</v>
+      </c>
+      <c r="CQ54">
+        <v>108.8691223592514</v>
+      </c>
+      <c r="CR54">
+        <v>-0.2</v>
+      </c>
+      <c r="CS54">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CT54">
+        <v>6185.475880421593</v>
+      </c>
+      <c r="CU54">
+        <v>165.4385574852922</v>
+      </c>
+      <c r="CV54">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="CW54">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="CX54">
+        <v>6898.04648512762</v>
+      </c>
+      <c r="CY54">
+        <v>271.8177981855191</v>
+      </c>
+      <c r="CZ54">
+        <v>-0.02500000000000002</v>
+      </c>
+      <c r="DA54">
+        <v>1.951219512195122</v>
+      </c>
+      <c r="DB54">
+        <v>7419.590601968704</v>
+      </c>
+      <c r="DC54">
+        <v>453.246534859214</v>
+      </c>
+      <c r="DD54">
+        <v>0</v>
+      </c>
+      <c r="DE54">
+        <v>2</v>
+      </c>
+      <c r="DF54">
+        <v>7590.723879269218</v>
+      </c>
+      <c r="DG54">
+        <v>627.0687978715714</v>
+      </c>
     </row>
-    <row r="55" spans="1:63">
+    <row r="55" spans="1:111">
       <c r="A55">
         <v>19.88975454545454</v>
       </c>
@@ -9508,7 +14836,7 @@
         <v>53</v>
       </c>
       <c r="W55" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X55">
         <v>36.14823543270677</v>
@@ -9601,7 +14929,7 @@
         <v>52451.01178678399</v>
       </c>
     </row>
-    <row r="56" spans="1:63">
+    <row r="56" spans="1:111">
       <c r="A56">
         <v>18.12745000000015</v>
       </c>
@@ -9669,7 +14997,7 @@
         <v>54</v>
       </c>
       <c r="W56" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X56">
         <v>35.56460692377188</v>
@@ -9762,7 +15090,7 @@
         <v>50833.71994580555</v>
       </c>
     </row>
-    <row r="57" spans="1:63">
+    <row r="57" spans="1:111">
       <c r="A57">
         <v>28.68921428571439</v>
       </c>
@@ -9830,7 +15158,7 @@
         <v>55</v>
       </c>
       <c r="W57" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X57">
         <v>37.74743395725078</v>
@@ -9923,7 +15251,7 @@
         <v>71470.05231623977</v>
       </c>
     </row>
-    <row r="58" spans="1:63">
+    <row r="58" spans="1:111">
       <c r="A58">
         <v>12.93012000000002</v>
       </c>
@@ -9991,7 +15319,7 @@
         <v>56</v>
       </c>
       <c r="W58" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X58">
         <v>33.61874806951205</v>
@@ -10084,7 +15412,7 @@
         <v>41207.88350773997</v>
       </c>
     </row>
-    <row r="59" spans="1:63">
+    <row r="59" spans="1:111">
       <c r="A59">
         <v>18.20902</v>
       </c>
@@ -10152,7 +15480,7 @@
         <v>57</v>
       </c>
       <c r="W59" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X59">
         <v>35.2617526769521</v>
@@ -10245,7 +15573,7 @@
         <v>50378.20253197124</v>
       </c>
     </row>
-    <row r="60" spans="1:63">
+    <row r="60" spans="1:111">
       <c r="A60">
         <v>17.49659000000007</v>
       </c>
@@ -10313,7 +15641,7 @@
         <v>58</v>
       </c>
       <c r="W60" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X60">
         <v>34.92931259378071</v>
@@ -10406,7 +15734,7 @@
         <v>55242.26889813639</v>
       </c>
     </row>
-    <row r="61" spans="1:63">
+    <row r="61" spans="1:111">
       <c r="A61">
         <v>27.2536333333339</v>
       </c>
@@ -10474,7 +15802,7 @@
         <v>59</v>
       </c>
       <c r="W61" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X61">
         <v>37.05250361088981</v>
@@ -10567,7 +15895,7 @@
         <v>66445.74688970808</v>
       </c>
     </row>
-    <row r="62" spans="1:63">
+    <row r="62" spans="1:111">
       <c r="A62">
         <v>35.1659</v>
       </c>
@@ -10635,7 +15963,7 @@
         <v>60</v>
       </c>
       <c r="W62" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X62">
         <v>38.20978098602395</v>
@@ -10728,7 +16056,7 @@
         <v>84838.84041411297</v>
       </c>
     </row>
-    <row r="63" spans="1:63">
+    <row r="63" spans="1:111">
       <c r="A63">
         <v>19.82443333333334</v>
       </c>
@@ -10796,7 +16124,7 @@
         <v>61</v>
       </c>
       <c r="W63" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X63">
         <v>35.26499398677134</v>
@@ -10889,7 +16217,7 @@
         <v>57338.54571905431</v>
       </c>
     </row>
-    <row r="64" spans="1:63">
+    <row r="64" spans="1:111">
       <c r="A64">
         <v>14.2971</v>
       </c>
@@ -10957,7 +16285,7 @@
         <v>62</v>
       </c>
       <c r="W64" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X64">
         <v>33.50468881913568</v>
@@ -11050,7 +16378,7 @@
         <v>47358.16831034276</v>
       </c>
     </row>
-    <row r="65" spans="1:63">
+    <row r="65" spans="1:111">
       <c r="A65">
         <v>20.88236363636366</v>
       </c>
@@ -11118,7 +16446,7 @@
         <v>63</v>
       </c>
       <c r="W65" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X65">
         <v>35.31585468446978</v>
@@ -11211,7 +16539,7 @@
         <v>61380.04604319522</v>
       </c>
     </row>
-    <row r="66" spans="1:63">
+    <row r="66" spans="1:111">
       <c r="A66">
         <v>34.01907272727251</v>
       </c>
@@ -11279,7 +16607,7 @@
         <v>64</v>
       </c>
       <c r="W66" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X66">
         <v>37.65871623518736</v>
@@ -11372,7 +16700,7 @@
         <v>87521.93074304453</v>
       </c>
     </row>
-    <row r="67" spans="1:63">
+    <row r="67" spans="1:111">
       <c r="A67">
         <v>15.65058000000004</v>
       </c>
@@ -11440,7 +16768,7 @@
         <v>65</v>
       </c>
       <c r="W67" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X67">
         <v>33.66711859585463</v>
@@ -11533,7 +16861,7 @@
         <v>51133.82302260755</v>
       </c>
     </row>
-    <row r="68" spans="1:63">
+    <row r="68" spans="1:111">
       <c r="A68">
         <v>27.69374999999984</v>
       </c>
@@ -11601,7 +16929,7 @@
         <v>66</v>
       </c>
       <c r="W68" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X68">
         <v>36.44888333531235</v>
@@ -11694,7 +17022,7 @@
         <v>71741.94880056463</v>
       </c>
     </row>
-    <row r="69" spans="1:63">
+    <row r="69" spans="1:111">
       <c r="A69">
         <v>22.88036363636355</v>
       </c>
@@ -11762,7 +17090,7 @@
         <v>67</v>
       </c>
       <c r="W69" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X69">
         <v>35.40524009535119</v>
@@ -11855,7 +17183,7 @@
         <v>63254.83311859655</v>
       </c>
     </row>
-    <row r="70" spans="1:63">
+    <row r="70" spans="1:111">
       <c r="A70">
         <v>6.817733333332253</v>
       </c>
@@ -11920,7 +17248,7 @@
         <v>68</v>
       </c>
       <c r="W70" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="AD70">
         <v>499.2537678825231</v>
@@ -12024,8 +17352,152 @@
       <c r="BK70">
         <v>10534.5680768978</v>
       </c>
+      <c r="BL70">
+        <v>-1</v>
+      </c>
+      <c r="BM70">
+        <v>1</v>
+      </c>
+      <c r="BN70">
+        <v>0</v>
+      </c>
+      <c r="BO70">
+        <v>0</v>
+      </c>
+      <c r="BP70">
+        <v>-0.95</v>
+      </c>
+      <c r="BQ70">
+        <v>1.025641025641026</v>
+      </c>
+      <c r="BR70">
+        <v>772.42376844961</v>
+      </c>
+      <c r="BS70">
+        <v>1.002689973808319</v>
+      </c>
+      <c r="BT70">
+        <v>-0.8</v>
+      </c>
+      <c r="BU70">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="BV70">
+        <v>3066.085043913149</v>
+      </c>
+      <c r="BW70">
+        <v>9.932987989590501</v>
+      </c>
+      <c r="BX70">
+        <v>-0.7</v>
+      </c>
+      <c r="BY70">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="BZ70">
+        <v>4573.837719395617</v>
+      </c>
+      <c r="CA70">
+        <v>20.17979832565558</v>
+      </c>
+      <c r="CB70">
+        <v>-0.6</v>
+      </c>
+      <c r="CC70">
+        <v>1.25</v>
+      </c>
+      <c r="CD70">
+        <v>6062.68565701045</v>
+      </c>
+      <c r="CE70">
+        <v>37.73110151262896</v>
+      </c>
+      <c r="CF70">
+        <v>-0.5</v>
+      </c>
+      <c r="CG70">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CH70">
+        <v>7530.765090147638</v>
+      </c>
+      <c r="CI70">
+        <v>60.07957052036931</v>
+      </c>
+      <c r="CJ70">
+        <v>-0.4</v>
+      </c>
+      <c r="CK70">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="CL70">
+        <v>8975.866059651171</v>
+      </c>
+      <c r="CM70">
+        <v>89.80638247294762</v>
+      </c>
+      <c r="CN70">
+        <v>-0.3</v>
+      </c>
+      <c r="CO70">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="CP70">
+        <v>10395.33557944566</v>
+      </c>
+      <c r="CQ70">
+        <v>135.3400391360359</v>
+      </c>
+      <c r="CR70">
+        <v>-0.2</v>
+      </c>
+      <c r="CS70">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CT70">
+        <v>11785.94339982531</v>
+      </c>
+      <c r="CU70">
+        <v>205.0435089470731</v>
+      </c>
+      <c r="CV70">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="CW70">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="CX70">
+        <v>13143.69128823388</v>
+      </c>
+      <c r="CY70">
+        <v>333.8026542386049</v>
+      </c>
+      <c r="CZ70">
+        <v>-0.02499999999999991</v>
+      </c>
+      <c r="DA70">
+        <v>1.951219512195122</v>
+      </c>
+      <c r="DB70">
+        <v>14137.4530553854</v>
+      </c>
+      <c r="DC70">
+        <v>538.4212079884486</v>
+      </c>
+      <c r="DD70">
+        <v>0</v>
+      </c>
+      <c r="DE70">
+        <v>2</v>
+      </c>
+      <c r="DF70">
+        <v>14463.53421051117</v>
+      </c>
+      <c r="DG70">
+        <v>703.7436439761607</v>
+      </c>
     </row>
-    <row r="71" spans="1:63">
+    <row r="71" spans="1:111">
       <c r="A71">
         <v>19.44373999999995</v>
       </c>
@@ -12093,7 +17565,7 @@
         <v>69</v>
       </c>
       <c r="W71" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X71">
         <v>34.4013440355593</v>
@@ -12186,7 +17658,7 @@
         <v>58503.32667509245</v>
       </c>
     </row>
-    <row r="72" spans="1:63">
+    <row r="72" spans="1:111">
       <c r="A72">
         <v>19.60052000000011</v>
       </c>
@@ -12254,7 +17726,7 @@
         <v>70</v>
       </c>
       <c r="W72" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X72">
         <v>34.35642685223581</v>
@@ -12347,7 +17819,7 @@
         <v>57772.32900762968</v>
       </c>
     </row>
-    <row r="73" spans="1:63">
+    <row r="73" spans="1:111">
       <c r="A73">
         <v>24.98422999999998</v>
       </c>
@@ -12415,7 +17887,7 @@
         <v>71</v>
       </c>
       <c r="W73" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X73">
         <v>35.49439919768068</v>
@@ -12508,7 +17980,7 @@
         <v>71786.20436550217</v>
       </c>
     </row>
-    <row r="74" spans="1:63">
+    <row r="74" spans="1:111">
       <c r="A74">
         <v>20.59185</v>
       </c>
@@ -12576,7 +18048,7 @@
         <v>72</v>
       </c>
       <c r="W74" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X74">
         <v>34.43492650193623</v>
@@ -12669,7 +18141,7 @@
         <v>60480.02092363486</v>
       </c>
     </row>
-    <row r="75" spans="1:63">
+    <row r="75" spans="1:111">
       <c r="A75">
         <v>23.58306000000006</v>
       </c>
@@ -12737,7 +18209,7 @@
         <v>73</v>
       </c>
       <c r="W75" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X75">
         <v>35.03944695032263</v>
@@ -12830,7 +18302,7 @@
         <v>66716.27702571357</v>
       </c>
     </row>
-    <row r="76" spans="1:63">
+    <row r="76" spans="1:111">
       <c r="A76">
         <v>25.911</v>
       </c>
@@ -12898,7 +18370,7 @@
         <v>74</v>
       </c>
       <c r="W76" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="X76">
         <v>35.42908801663737</v>
